--- a/results.xlsx
+++ b/results.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nemo/Desktop/thesis/softRmax-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B250754-5282-EF4D-AF2D-A785A4F50C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA90B6-CE85-1F47-B41E-C6FE8AC337B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21360" activeTab="2" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
+    <workbookView xWindow="2660" yWindow="5620" windowWidth="22700" windowHeight="17460" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
   </bookViews>
   <sheets>
     <sheet name="mnist - normalized" sheetId="1" r:id="rId1"/>
     <sheet name="mnist - not normalized" sheetId="2" r:id="rId2"/>
     <sheet name="cifar10" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">'mnist - not normalized'!$J$61</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'mnist - not normalized'!$J$63:$J$72</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'mnist - not normalized'!$H$61</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'mnist - not normalized'!$H$63:$H$72</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'mnist - not normalized'!$I$61</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'mnist - not normalized'!$I$63:$I$72</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'mnist - not normalized'!$H$61</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'mnist - not normalized'!$H$63:$H$72</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'mnist - not normalized'!$I$61</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'mnist - not normalized'!$I$63:$I$72</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'mnist - not normalized'!$J$61</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'mnist - not normalized'!$J$63:$J$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="106">
   <si>
     <t xml:space="preserve">conservative_a: </t>
   </si>
@@ -323,6 +337,39 @@
   </si>
   <si>
     <t>CIFAR (vgg19)</t>
+  </si>
+  <si>
+    <t>FGSM attack (Black box)</t>
+  </si>
+  <si>
+    <t>FGSM attack (White box)</t>
+  </si>
+  <si>
+    <t>FGSM (softRmax adv data)</t>
+  </si>
+  <si>
+    <t>FGSM (softmax adv data)</t>
+  </si>
+  <si>
+    <t>eps 0,6</t>
+  </si>
+  <si>
+    <t>eps 0,7</t>
+  </si>
+  <si>
+    <t>eps 0,8</t>
+  </si>
+  <si>
+    <t>eps 0,9</t>
+  </si>
+  <si>
+    <t>eps 1,0</t>
+  </si>
+  <si>
+    <t>Average attack (6 to 8)</t>
+  </si>
+  <si>
+    <t>softRmax</t>
   </si>
 </sst>
 </file>
@@ -333,7 +380,7 @@
     <numFmt numFmtId="164" formatCode="[Colour10]0.00%;[Red]0.00%"/>
     <numFmt numFmtId="165" formatCode="[Green]0.00%;[Red]0.00%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,6 +534,25 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -508,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -516,12 +582,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,7 +676,6 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -642,17 +716,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +768,1108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MNIST FGSM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mnist - not normalized'!$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>softmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mnist - not normalized'!$H$62:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mnist - not normalized'!$I$62:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1525</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6300000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD45-8047-8069-8D7756F33BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mnist - not normalized'!$J$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>softRmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mnist - not normalized'!$H$62:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mnist - not normalized'!$J$62:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28120000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD45-8047-8069-8D7756F33BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="256986096"/>
+        <c:axId val="256988368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256986096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256988368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256988368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256986096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>420511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>87488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5819701-9088-7FFC-57A4-B50A39ACD436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A11AE0-B146-4F40-BD5E-14A3A0645060}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +2243,7 @@
       <c r="E4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="43" t="s">
@@ -1058,7 +2259,7 @@
       <c r="L4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1087,7 +2288,7 @@
       <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1114,7 +2315,7 @@
       <c r="L6" s="10">
         <v>32</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1141,7 +2342,7 @@
       <c r="L7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1168,7 +2369,7 @@
       <c r="L8" s="10">
         <v>128</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1195,7 +2396,7 @@
       <c r="L9" s="10">
         <v>10</v>
       </c>
-      <c r="M9" s="50"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1222,7 +2423,7 @@
       <c r="L10" s="10">
         <v>1E-3</v>
       </c>
-      <c r="M10" s="50"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1249,7 +2450,7 @@
       <c r="L11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="50"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -1276,10 +2477,10 @@
       <c r="L12" s="10">
         <v>3</v>
       </c>
-      <c r="M12" s="50"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M13" s="50"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -1295,7 +2496,7 @@
       <c r="E14" s="46">
         <v>0.9919</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f>(E14-B14)/B14</f>
         <v>2.4254674077816649E-3</v>
       </c>
@@ -1312,7 +2513,7 @@
       <c r="L14" s="28">
         <v>0.99850000000000005</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="50">
         <f>(L14-I14)/I14</f>
         <v>2.4093966469230688E-3</v>
       </c>
@@ -1329,11 +2530,11 @@
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="20"/>
@@ -1341,13 +2542,13 @@
       <c r="E16" s="23"/>
       <c r="F16" s="18"/>
       <c r="H16" s="25" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="20"/>
       <c r="K16" s="24"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="50"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
@@ -1363,7 +2564,7 @@
       <c r="E17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="14"/>
@@ -1380,7 +2581,7 @@
       <c r="L17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1398,7 +2599,7 @@
       <c r="E18" s="28">
         <v>0.98470000000000002</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <f t="shared" ref="F18:F27" si="0">(E18-B18)/B18</f>
         <v>4.1811136039159617E-3</v>
       </c>
@@ -1415,7 +2616,7 @@
       <c r="L18" s="28">
         <v>0.99760000000000004</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <f t="shared" ref="M18:M26" si="1">(L18-I18)/I18</f>
         <v>2.6130653266332126E-3</v>
       </c>
@@ -1434,7 +2635,7 @@
       <c r="E19" s="28">
         <v>0.9718</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>3.5109458901280035E-3</v>
       </c>
@@ -1451,7 +2652,7 @@
       <c r="L19" s="46">
         <v>0.99509999999999998</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <f t="shared" si="1"/>
         <v>2.0138958815829238E-3</v>
       </c>
@@ -1470,7 +2671,7 @@
       <c r="E20" s="28">
         <v>0.95879999999999999</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>1.28882315656032E-2</v>
       </c>
@@ -1487,7 +2688,7 @@
       <c r="L20" s="28">
         <v>0.99219999999999997</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="50">
         <f t="shared" si="1"/>
         <v>5.0648298217179947E-3</v>
       </c>
@@ -1506,7 +2707,7 @@
       <c r="E21" s="28">
         <v>0.94159999999999999</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>2.1923160408074665E-2</v>
       </c>
@@ -1523,7 +2724,7 @@
       <c r="L21" s="28">
         <v>0.98770000000000002</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <f t="shared" si="1"/>
         <v>4.9857549857550013E-3</v>
       </c>
@@ -1542,7 +2743,7 @@
       <c r="E22" s="28">
         <v>0.92100000000000004</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
         <v>3.7980389947030388E-2</v>
       </c>
@@ -1559,7 +2760,7 @@
       <c r="L22" s="28">
         <v>0.98280000000000001</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="50">
         <f>(L22-I22)/I22</f>
         <v>1.0071942446043198E-2</v>
       </c>
@@ -1578,7 +2779,7 @@
       <c r="E23" s="28">
         <v>0.90049999999999997</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>6.4295000590946699E-2</v>
       </c>
@@ -1595,7 +2796,7 @@
       <c r="L23" s="46">
         <v>0.97840000000000005</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="50">
         <f t="shared" si="1"/>
         <v>2.0974642596264224E-2</v>
       </c>
@@ -1614,7 +2815,7 @@
       <c r="E24" s="28">
         <v>0.87649999999999995</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>0.10529634300126091</v>
       </c>
@@ -1631,7 +2832,7 @@
       <c r="L24" s="28">
         <v>0.96660000000000001</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="50">
         <f t="shared" si="1"/>
         <v>2.3290281600677556E-2</v>
       </c>
@@ -1650,7 +2851,7 @@
       <c r="E25" s="28">
         <v>0.85340000000000005</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>0.17048415855163912</v>
       </c>
@@ -1667,7 +2868,7 @@
       <c r="L25" s="28">
         <v>0.95440000000000003</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <f t="shared" si="1"/>
         <v>3.245348334054525E-2</v>
       </c>
@@ -1686,7 +2887,7 @@
       <c r="E26" s="28">
         <v>0.82250000000000001</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <f t="shared" si="0"/>
         <v>0.22742874197880911</v>
       </c>
@@ -1703,49 +2904,50 @@
       <c r="L26" s="28">
         <v>0.93769999999999998</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="50">
         <f t="shared" si="1"/>
         <v>6.0506672698484497E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="46">
         <v>0.60509999999999997</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="46">
         <v>0.78720000000000001</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>0.3009419930589986</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="46">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="21" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="46">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="50">
         <f>(L27-I27)/I27</f>
         <v>9.123222748815174E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M28" s="50"/>
+      <c r="M28" s="49"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
@@ -1759,7 +2961,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="50"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -1777,7 +2979,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="24"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="50"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
@@ -1793,7 +2995,7 @@
       <c r="E31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43" t="s">
@@ -1809,7 +3011,7 @@
       <c r="L31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="49" t="s">
+      <c r="M31" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1827,7 +3029,7 @@
       <c r="E32" s="28">
         <v>0.95830000000000004</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="51">
         <f t="shared" ref="F32:F41" si="2">(E32-B32)/B32</f>
         <v>-1.7833350415086574E-2</v>
       </c>
@@ -1844,7 +3046,7 @@
       <c r="L32" s="28">
         <v>0.99660000000000004</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="50">
         <f t="shared" ref="M32:M40" si="3">(L32-I32)/I32</f>
         <v>5.0195763477568116E-4</v>
       </c>
@@ -1863,7 +3065,7 @@
       <c r="E33" s="46">
         <v>0.9</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <f t="shared" si="2"/>
         <v>-6.0444722831193183E-2</v>
       </c>
@@ -1880,7 +3082,7 @@
       <c r="L33" s="46">
         <v>0.99409999999999998</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="50">
         <f t="shared" si="3"/>
         <v>1.511182752367465E-3</v>
       </c>
@@ -1899,7 +3101,7 @@
       <c r="E34" s="28">
         <v>0.81779999999999997</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="51">
         <f t="shared" si="2"/>
         <v>-0.1183699870633894</v>
       </c>
@@ -1916,7 +3118,7 @@
       <c r="L34" s="28">
         <v>0.98919999999999997</v>
       </c>
-      <c r="M34" s="51">
+      <c r="M34" s="50">
         <f t="shared" si="3"/>
         <v>2.0259319286871978E-3</v>
       </c>
@@ -1935,7 +3137,7 @@
       <c r="E35" s="28">
         <v>0.7208</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="51">
         <f t="shared" si="2"/>
         <v>-0.1766049805803061</v>
       </c>
@@ -1952,7 +3154,7 @@
       <c r="L35" s="28">
         <v>0.97940000000000005</v>
       </c>
-      <c r="M35" s="51">
+      <c r="M35" s="50">
         <f t="shared" si="3"/>
         <v>-2.0379050336254349E-3</v>
       </c>
@@ -1971,7 +3173,7 @@
       <c r="E36" s="28">
         <v>0.62719999999999998</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="51">
         <f t="shared" si="2"/>
         <v>-0.22424242424242427</v>
       </c>
@@ -1988,7 +3190,7 @@
       <c r="L36" s="28">
         <v>0.96319999999999995</v>
       </c>
-      <c r="M36" s="51">
+      <c r="M36" s="50">
         <f>(L36-I36)/I36</f>
         <v>-5.5750567829858265E-3</v>
       </c>
@@ -2007,7 +3209,7 @@
       <c r="E37" s="46">
         <v>0.5383</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="51">
         <f t="shared" si="2"/>
         <v>-0.26702069716775606</v>
       </c>
@@ -2024,7 +3226,7 @@
       <c r="L37" s="46">
         <v>0.93379999999999996</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="50">
         <f t="shared" si="3"/>
         <v>-2.2096554613048495E-2</v>
       </c>
@@ -2043,7 +3245,7 @@
       <c r="E38" s="28">
         <v>0.4612</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="51">
         <f t="shared" si="2"/>
         <v>-0.29436964504283963</v>
       </c>
@@ -2060,7 +3262,7 @@
       <c r="L38" s="28">
         <v>0.89649999999999996</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="50">
         <f t="shared" si="3"/>
         <v>-3.6850021486892995E-2</v>
       </c>
@@ -2079,7 +3281,7 @@
       <c r="E39" s="28">
         <v>0.36320000000000002</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="51">
         <f t="shared" si="2"/>
         <v>-0.31908511436070486</v>
       </c>
@@ -2096,7 +3298,7 @@
       <c r="L39" s="28">
         <v>0.81259999999999999</v>
       </c>
-      <c r="M39" s="51">
+      <c r="M39" s="50">
         <f t="shared" si="3"/>
         <v>-7.0677035681610212E-2</v>
       </c>
@@ -2115,7 +3317,7 @@
       <c r="E40" s="28">
         <v>0.29759999999999998</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="51">
         <f t="shared" si="2"/>
         <v>-0.32425068119891015</v>
       </c>
@@ -2132,49 +3334,881 @@
       <c r="L40" s="28">
         <v>0.72719999999999996</v>
       </c>
-      <c r="M40" s="51">
+      <c r="M40" s="50">
         <f t="shared" si="3"/>
         <v>-0.10288675055514437</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="46">
         <v>0.3543</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="46">
         <v>0.2447</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="51">
         <f t="shared" si="2"/>
         <v>-0.30934236522720859</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="78"/>
+      <c r="H41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="46">
         <v>0.70950000000000002</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="30"/>
+      <c r="K41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41" s="46">
         <v>0.64670000000000005</v>
       </c>
-      <c r="M41" s="51">
+      <c r="M41" s="50">
         <f>(L41-I41)/I41</f>
         <v>-8.8513037350246598E-2</v>
       </c>
     </row>
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E46" s="47"/>
+      <c r="A46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="28">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="28">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="F46" s="50">
+        <f t="shared" ref="F46:F55" si="4">(E46-B46)/B46</f>
+        <v>4.0543279951348096E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="46">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="46">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="F47" s="50">
+        <f t="shared" si="4"/>
+        <v>2.5378134199574233E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="28">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="28">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="F48" s="50">
+        <f t="shared" si="4"/>
+        <v>1.5259409969481759E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="28">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="28">
+        <v>0.9788</v>
+      </c>
+      <c r="F49" s="50">
+        <f t="shared" si="4"/>
+        <v>-1.4282799428687583E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="28">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="28">
+        <v>0.9738</v>
+      </c>
+      <c r="F50" s="50">
+        <f t="shared" si="4"/>
+        <v>-1.33319659522097E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="46">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="46">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F51" s="50">
+        <f t="shared" si="4"/>
+        <v>-8.9589125733703333E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="28">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="28">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="F52" s="50">
+        <f t="shared" si="4"/>
+        <v>-1.6068836823553763E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="28">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="F53" s="50">
+        <f t="shared" si="4"/>
+        <v>-2.7277459656428943E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="28">
+        <v>0.9516</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="28">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="F54" s="50">
+        <f t="shared" si="4"/>
+        <v>-4.2770071458596008E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="46">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="46">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F55" s="50">
+        <f t="shared" si="4"/>
+        <v>-6.5032887757267163E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="26">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="79">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F60" s="50">
+        <f t="shared" ref="F60:F68" si="5">(E60-B60)/B60</f>
+        <v>-1.0116337885685391E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="26">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="79">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="F61" s="50">
+        <f t="shared" si="5"/>
+        <v>5.3050397877985036E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="26">
+        <v>0.9718</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="79">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F62" s="50">
+        <f t="shared" si="5"/>
+        <v>7.5118337106400215E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="26">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="79">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="F63" s="50">
+        <f t="shared" si="5"/>
+        <v>8.7664370695052837E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="26">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="C64" s="78"/>
+      <c r="D64" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="79">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="F64" s="50">
+        <f t="shared" si="5"/>
+        <v>3.3824331696672033E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="26">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="79">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="F65" s="50">
+        <f t="shared" si="5"/>
+        <v>-2.3302342003059948E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="26">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="79">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="F66" s="50">
+        <f t="shared" si="5"/>
+        <v>-9.4298245614035048E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="26">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="79">
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="F67" s="50">
+        <f t="shared" si="5"/>
+        <v>-0.27137485695602426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="26">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="79">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="F68" s="50">
+        <f t="shared" si="5"/>
+        <v>-0.45649233543733092</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="80">
+        <v>0.309</v>
+      </c>
+      <c r="C69" s="78"/>
+      <c r="D69" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="80">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="F69" s="50">
+        <f>(E69-B69)/B69</f>
+        <v>-0.56407766990291264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="77"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+    </row>
+    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="28">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="28">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F80" s="50">
+        <f t="shared" ref="F80:F89" si="6">(E80-B80)/B80</f>
+        <v>-1.9258057976890459E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="46">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="28">
+        <v>0.9718</v>
+      </c>
+      <c r="F81" s="50">
+        <f t="shared" si="6"/>
+        <v>-1.3501167394173159E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="28">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="28">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="F82" s="50">
+        <f t="shared" si="6"/>
+        <v>-2.461851475076297E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="28">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="28">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="F83" s="50">
+        <f t="shared" si="6"/>
+        <v>-3.9379718424811229E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="28">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="28">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="F84" s="50">
+        <f t="shared" si="6"/>
+        <v>-5.5481489078043206E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="46">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="28">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F85" s="50">
+        <f t="shared" si="6"/>
+        <v>-7.2701060652867883E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="28">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="28">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="F86" s="50">
+        <f t="shared" si="6"/>
+        <v>-9.1333195106780077E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="28">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="28">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="F87" s="50">
+        <f t="shared" si="6"/>
+        <v>-0.11150442477876103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="28">
+        <v>0.9516</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="28">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F88" s="50">
+        <f t="shared" si="6"/>
+        <v>-0.13566624632198401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="28">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="28">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="F89" s="50">
+        <f t="shared" si="6"/>
+        <v>-0.16486314449395287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="28">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="28">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="F94" s="50">
+        <f t="shared" ref="F94:F103" si="7">(E94-B94)/B94</f>
+        <v>1.0197838058331642E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="46">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="46">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="F95" s="50">
+        <f t="shared" si="7"/>
+        <v>1.9826517967781902E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="28">
+        <v>0.9466</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="28">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="F96" s="50">
+        <f t="shared" si="7"/>
+        <v>4.0038030847242813E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="28">
+        <v>0.9214</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="28">
+        <v>0.9788</v>
+      </c>
+      <c r="F97" s="50">
+        <f t="shared" si="7"/>
+        <v>6.2296505317994362E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="28">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="28">
+        <v>0.9738</v>
+      </c>
+      <c r="F98" s="50">
+        <f t="shared" si="7"/>
+        <v>9.74867575791728E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="46">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="46">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F99" s="50">
+        <f t="shared" si="7"/>
+        <v>0.13745420163101296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="28">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="28">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="F100" s="50">
+        <f t="shared" si="7"/>
+        <v>0.19684741488020177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="28">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="28">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="F101" s="50">
+        <f t="shared" si="7"/>
+        <v>0.28144287477712254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="28">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="28">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="F102" s="50">
+        <f t="shared" si="7"/>
+        <v>0.35934935084315772</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="28">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="28">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F103" s="50">
+        <f t="shared" si="7"/>
+        <v>0.45645347876384074</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2185,10 +4219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B086D-4A69-674E-A1F5-47C7ABBEF27F}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,37 +4278,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2500,7 +4534,7 @@
       <c r="E14" s="46">
         <v>0.99339999999999995</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f>(E14-B14)/B14</f>
         <v>5.1603764039259269E-3</v>
       </c>
@@ -2517,7 +4551,7 @@
       <c r="L14" s="46">
         <v>0.99853000000000003</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="50">
         <f>(L14-I14)/I14</f>
         <v>5.3106212424852749E-4</v>
       </c>
@@ -2538,7 +4572,7 @@
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="20"/>
@@ -2546,7 +4580,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="18"/>
       <c r="H16" s="25" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="20"/>
@@ -2554,37 +4588,37 @@
       <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="L17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2593,18 +4627,18 @@
         <v>25</v>
       </c>
       <c r="B18" s="28">
-        <v>0.9617</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="28">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="F18" s="51">
-        <f>(E18-B18)/B18</f>
-        <v>8.7345325985234094E-3</v>
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F18" s="50">
+        <f t="shared" ref="F18:F27" si="0">(E18-B18)/B18</f>
+        <v>-1.8711439263679651E-2</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>25</v>
@@ -2619,7 +4653,7 @@
       <c r="L18" s="28">
         <v>0.99509000000000003</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <f>(L18-I18)/I18</f>
         <v>4.9485452286934985E-3</v>
       </c>
@@ -2628,19 +4662,19 @@
       <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28">
-        <v>0.91500000000000004</v>
+      <c r="B19" s="46">
+        <v>0.91349999999999998</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="46">
         <v>0.93340000000000001</v>
       </c>
-      <c r="F19" s="51">
-        <f t="shared" ref="F19:F27" si="0">(E19-B19)/B19</f>
-        <v>2.0109289617486308E-2</v>
+      <c r="F19" s="50">
+        <f t="shared" si="0"/>
+        <v>2.1784345922276988E-2</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>26</v>
@@ -2655,7 +4689,7 @@
       <c r="L19" s="28">
         <v>0.98626000000000003</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <f t="shared" ref="M19:M27" si="1">(L19-I19)/I19</f>
         <v>1.2597665273770781E-2</v>
       </c>
@@ -2665,18 +4699,18 @@
         <v>27</v>
       </c>
       <c r="B20" s="28">
-        <v>0.82250000000000001</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="28">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="F20" s="51">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
-        <v>8.3768996960486272E-2</v>
+        <v>8.8468578401464312E-2</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>27</v>
@@ -2691,7 +4725,7 @@
       <c r="L20" s="28">
         <v>0.95975999999999995</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="50">
         <f t="shared" si="1"/>
         <v>4.097702770125157E-2</v>
       </c>
@@ -2701,18 +4735,18 @@
         <v>28</v>
       </c>
       <c r="B21" s="28">
-        <v>0.67369999999999997</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="28">
-        <v>0.8206</v>
-      </c>
-      <c r="F21" s="51">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
-        <v>0.21804957696303998</v>
+        <v>0.22154531946508171</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>28</v>
@@ -2727,7 +4761,7 @@
       <c r="L21" s="28">
         <v>0.92737999999999998</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <f t="shared" si="1"/>
         <v>0.15033863405194867</v>
       </c>
@@ -2737,18 +4771,18 @@
         <v>29</v>
       </c>
       <c r="B22" s="28">
-        <v>0.4864</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="28">
-        <v>0.73180000000000001</v>
-      </c>
-      <c r="F22" s="51">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
-        <v>0.50452302631578949</v>
+        <v>0.50482249127847312</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>29</v>
@@ -2763,7 +4797,7 @@
       <c r="L22" s="28">
         <v>0.88910999999999996</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="50">
         <f t="shared" si="1"/>
         <v>0.65631520119225017</v>
       </c>
@@ -2772,19 +4806,19 @@
       <c r="A23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="28">
-        <v>0.32890000000000003</v>
+      <c r="B23" s="46">
+        <v>0.32669999999999999</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="28">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="F23" s="51">
+      <c r="E23" s="46">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
-        <v>0.98236546062633012</v>
+        <v>0.99877563513927159</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>30</v>
@@ -2799,7 +4833,7 @@
       <c r="L23" s="28">
         <v>0.86407999999999996</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="50">
         <f t="shared" si="1"/>
         <v>2.0948424068767908</v>
       </c>
@@ -2809,18 +4843,18 @@
         <v>31</v>
       </c>
       <c r="B24" s="28">
-        <v>0.22359999999999999</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="28">
-        <v>0.57679999999999998</v>
-      </c>
-      <c r="F24" s="51">
-        <f t="shared" si="0"/>
-        <v>1.5796064400715562</v>
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="F24" s="50">
+        <f>(E24-B24)/B24</f>
+        <v>1.6312670920692798</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>31</v>
@@ -2835,7 +4869,7 @@
       <c r="L24" s="28">
         <v>0.85182000000000002</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="50">
         <f t="shared" si="1"/>
         <v>5.1128094725511302</v>
       </c>
@@ -2845,18 +4879,18 @@
         <v>32</v>
       </c>
       <c r="B25" s="28">
-        <v>0.15260000000000001</v>
+        <v>0.1525</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="28">
-        <v>0.48330000000000001</v>
-      </c>
-      <c r="F25" s="51">
-        <f t="shared" si="0"/>
-        <v>2.1671035386631714</v>
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F25" s="50">
+        <f>(E25-B25)/B25</f>
+        <v>2.1613114754098359</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>32</v>
@@ -2871,7 +4905,7 @@
       <c r="L25" s="28">
         <v>0.84789000000000003</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <f t="shared" si="1"/>
         <v>11.083368961094486</v>
       </c>
@@ -2881,18 +4915,18 @@
         <v>33</v>
       </c>
       <c r="B26" s="28">
-        <v>0.1084</v>
+        <v>0.1045</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="28">
-        <v>0.37709999999999999</v>
-      </c>
-      <c r="F26" s="51">
-        <f t="shared" si="0"/>
-        <v>2.4787822878228782</v>
+        <v>0.376</v>
+      </c>
+      <c r="F26" s="50">
+        <f>(E26-B26)/B26</f>
+        <v>2.598086124401914</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>33</v>
@@ -2907,7 +4941,7 @@
       <c r="L26" s="28">
         <v>0.84838000000000002</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="50">
         <f t="shared" si="1"/>
         <v>23.350746268656717</v>
       </c>
@@ -2917,18 +4951,18 @@
         <v>34</v>
       </c>
       <c r="B27" s="28">
-        <v>8.3299999999999999E-2</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="28">
-        <v>0.27710000000000001</v>
-      </c>
-      <c r="F27" s="51">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
-        <v>2.3265306122448983</v>
+        <v>2.2584009269988412</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>34</v>
@@ -2943,7 +4977,7 @@
       <c r="L27" s="28">
         <v>0.84887000000000001</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="50">
         <f t="shared" si="1"/>
         <v>33.605381165919283</v>
       </c>
@@ -2980,37 +5014,37 @@
       <c r="L30" s="23"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="56" t="s">
+      <c r="M31" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3028,7 +5062,7 @@
       <c r="E32" s="28">
         <v>0.95730000000000004</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <f>(E32-B32)/B32</f>
         <v>5.1448971020579748E-3</v>
       </c>
@@ -3045,7 +5079,7 @@
       <c r="L32" s="28">
         <v>0.99411000000000005</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="50">
         <f>(L32-I32)/I32</f>
         <v>5.9602112889842965E-3</v>
       </c>
@@ -3064,7 +5098,7 @@
       <c r="E33" s="28">
         <v>0.87890000000000001</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="50">
         <f t="shared" ref="F33:F41" si="2">(E33-B33)/B33</f>
         <v>2.4956268221574315E-2</v>
       </c>
@@ -3081,7 +5115,7 @@
       <c r="L33" s="28">
         <v>0.96614</v>
       </c>
-      <c r="M33" s="68">
+      <c r="M33" s="65">
         <f t="shared" ref="M33:M37" si="3">(L33-I33)/I33</f>
         <v>1.4948892227206316E-2</v>
       </c>
@@ -3100,7 +5134,7 @@
       <c r="E34" s="28">
         <v>0.77059999999999995</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="50">
         <f t="shared" si="2"/>
         <v>0.18645111624326405</v>
       </c>
@@ -3117,7 +5151,7 @@
       <c r="L34" s="28">
         <v>0.90088000000000001</v>
       </c>
-      <c r="M34" s="68">
+      <c r="M34" s="65">
         <f t="shared" si="3"/>
         <v>9.0257775626285827E-2</v>
       </c>
@@ -3136,7 +5170,7 @@
       <c r="E35" s="28">
         <v>0.64529999999999998</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="50">
         <f t="shared" si="2"/>
         <v>0.64953987730061347</v>
       </c>
@@ -3153,7 +5187,7 @@
       <c r="L35" s="28">
         <v>0.84838000000000002</v>
       </c>
-      <c r="M35" s="68">
+      <c r="M35" s="65">
         <f t="shared" si="3"/>
         <v>0.76250129843149483</v>
       </c>
@@ -3172,7 +5206,7 @@
       <c r="E36" s="28">
         <v>0.57089999999999996</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="50">
         <f t="shared" si="2"/>
         <v>2.1681465038845724</v>
       </c>
@@ -3189,7 +5223,7 @@
       <c r="L36" s="28">
         <v>0.82384999999999997</v>
       </c>
-      <c r="M36" s="68">
+      <c r="M36" s="65">
         <f t="shared" si="3"/>
         <v>3.8809171159428875</v>
       </c>
@@ -3208,7 +5242,7 @@
       <c r="E37" s="28">
         <v>0.5302</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="50">
         <f t="shared" si="2"/>
         <v>5.9763157894736842</v>
       </c>
@@ -3225,7 +5259,7 @@
       <c r="L37" s="28">
         <v>0.80667</v>
       </c>
-      <c r="M37" s="68">
+      <c r="M37" s="65">
         <f t="shared" si="3"/>
         <v>36.363131079203335</v>
       </c>
@@ -3244,7 +5278,7 @@
       <c r="E38" s="28">
         <v>0.51259999999999994</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="50">
         <f t="shared" si="2"/>
         <v>17.915129151291509</v>
       </c>
@@ -3261,7 +5295,7 @@
       <c r="L38" s="28">
         <v>0.79096999999999995</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3279,7 +5313,7 @@
       <c r="E39" s="28">
         <v>0.50700000000000001</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="50">
         <f t="shared" si="2"/>
         <v>45.944444444444443</v>
       </c>
@@ -3296,7 +5330,7 @@
       <c r="L39" s="28">
         <v>0.78017999999999998</v>
       </c>
-      <c r="M39" s="69" t="s">
+      <c r="M39" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3314,7 +5348,7 @@
       <c r="E40" s="28">
         <v>0.50460000000000005</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="50">
         <f t="shared" si="2"/>
         <v>96.038461538461561</v>
       </c>
@@ -3331,7 +5365,7 @@
       <c r="L40" s="28">
         <v>0.77527000000000001</v>
       </c>
-      <c r="M40" s="69" t="s">
+      <c r="M40" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3349,7 +5383,7 @@
       <c r="E41" s="28">
         <v>0.50280000000000002</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="50">
         <f t="shared" si="2"/>
         <v>118.71428571428574</v>
       </c>
@@ -3366,16 +5400,1002 @@
       <c r="L41" s="28">
         <v>0.77478000000000002</v>
       </c>
-      <c r="M41" s="69" t="s">
+      <c r="M41" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M42" s="70"/>
+      <c r="M42" s="67"/>
+    </row>
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="45"/>
+      <c r="K45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="28">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="28">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="F46" s="50">
+        <f t="shared" ref="F46:F55" si="4">(E46-B46)/B46</f>
+        <v>2.339538195504099E-3</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="28">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="69">
+        <v>0.999</v>
+      </c>
+      <c r="M46" s="50">
+        <f t="shared" ref="M46:M55" si="5">(L46-I46)/I46</f>
+        <v>2.4081878386513723E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="46">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="46">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F47" s="50">
+        <f t="shared" si="4"/>
+        <v>-5.4331112250128981E-3</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="46">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="70">
+        <v>0.998</v>
+      </c>
+      <c r="M47" s="50">
+        <f t="shared" si="5"/>
+        <v>1.4047762392132819E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="28">
+        <v>0.9637</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="28">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="F48" s="50">
+        <f t="shared" si="4"/>
+        <v>-4.2751893742866053E-2</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="28">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="69">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="M48" s="50">
+        <f t="shared" si="5"/>
+        <v>1.4068937795197144E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="28">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="28">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="F49" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.13479590760468307</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="28">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="69">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="M49" s="50">
+        <f t="shared" si="5"/>
+        <v>2.5173698519787109E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="28">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="28">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="F50" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.31537054963966876</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="28">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="69">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="M50" s="50">
+        <f t="shared" si="5"/>
+        <v>2.0159258139300492E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="46">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="46">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="F51" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.46750781598928093</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="70">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="M51" s="50">
+        <f t="shared" si="5"/>
+        <v>1.0088781275221963E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="28">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="28">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="F52" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.55695746214852193</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="28">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="J52" s="26"/>
+      <c r="K52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="69">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="M52" s="50">
+        <f t="shared" si="5"/>
+        <v>-5.0494849525342851E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="28">
+        <v>0.754</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="F53" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.61949602122015912</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="J53" s="26"/>
+      <c r="K53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="69">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="M53" s="50">
+        <f t="shared" si="5"/>
+        <v>-2.9361142047180456E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="28">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="28">
+        <v>0.2268</v>
+      </c>
+      <c r="F54" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.65484705524273323</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="28">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="69">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="M54" s="50">
+        <f t="shared" si="5"/>
+        <v>-6.9958430497819189E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="28">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="28">
+        <v>0.1837</v>
+      </c>
+      <c r="F55" s="50">
+        <f t="shared" si="4"/>
+        <v>-0.67681210415200566</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="28">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="J55" s="26"/>
+      <c r="K55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="69">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="M55" s="50">
+        <f t="shared" si="5"/>
+        <v>-1.7973192526401349E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H58" s="25"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H59" s="71"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="74"/>
+    </row>
+    <row r="60" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="21"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="50"/>
+    </row>
+    <row r="61" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K61" s="18"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="50"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="28">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="28">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F62" s="50">
+        <f t="shared" ref="F62:F66" si="6">(E62-B62)/B62</f>
+        <v>-1.3121757705218211E-2</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="46">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="J62" s="46">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="50"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="46">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="46">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="F63" s="50">
+        <f t="shared" si="6"/>
+        <v>-4.31573552024603E-2</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="J63" s="28">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="K63" s="21"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="50"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="28">
+        <v>0.9637</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="28">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F64" s="50">
+        <f t="shared" si="6"/>
+        <v>-7.4400747120473162E-2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I64" s="46">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="J64" s="46">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="50"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="28">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="28">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="F65" s="50">
+        <f t="shared" si="6"/>
+        <v>-0.13289737369475793</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="J65" s="28">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="K65" s="18"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="50"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="28">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="28">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F66" s="50">
+        <f t="shared" si="6"/>
+        <v>-0.21125094116381632</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I66" s="28">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="J66" s="28">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="50"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="46">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="46">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F67" s="50">
+        <f>(E67-B67)/B67</f>
+        <v>-0.2708798570790531</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I67" s="28">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="J67" s="28">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="50"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="28">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="28">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="F68" s="50">
+        <f>(E68-B68)/B68</f>
+        <v>-0.30629656332612354</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I68" s="46">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="J68" s="46">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="50"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="28">
+        <v>0.754</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="28">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F69" s="50">
+        <f>(E69-B69)/B69</f>
+        <v>-0.36061007957559688</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I69" s="28">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="J69" s="28">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="50"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="28">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="28">
+        <v>0.376</v>
+      </c>
+      <c r="F70" s="50">
+        <f>(E70-B70)/B70</f>
+        <v>-0.42778876883274997</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I70" s="28">
+        <v>0.1525</v>
+      </c>
+      <c r="J70" s="28">
+        <v>0.48209999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="28">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="28">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="F71" s="50">
+        <f t="shared" ref="F71" si="7">(E71-B71)/B71</f>
+        <v>-0.50527797325826884</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I71" s="28">
+        <v>0.1045</v>
+      </c>
+      <c r="J71" s="28">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="28">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="J72" s="28">
+        <v>0.28120000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A75" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="28">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="28">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="F76" s="50">
+        <f>(E76-B76)/B76</f>
+        <v>-3.3377161929806511E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="46">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="46">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F77" s="50">
+        <f t="shared" ref="F77:F85" si="8">(E77-B77)/B77</f>
+        <v>6.2068965517241351E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="28">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="28">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="F78" s="50">
+        <f t="shared" si="8"/>
+        <v>0.12568639414276997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="28">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="28">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="F79" s="50">
+        <f t="shared" si="8"/>
+        <v>0.21887072808320948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="28">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="28">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="F80" s="50">
+        <f t="shared" si="8"/>
+        <v>0.30617689308434215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="46">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="46">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="F81" s="50">
+        <f t="shared" si="8"/>
+        <v>0.45974900520355066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="28">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="28">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="F82" s="50">
+        <f t="shared" si="8"/>
+        <v>0.68049225159525983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="28">
+        <v>0.1525</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="28">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="F83" s="50">
+        <f t="shared" si="8"/>
+        <v>0.88131147540983601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="28">
+        <v>0.1045</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="28">
+        <v>0.2268</v>
+      </c>
+      <c r="F84" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1703349282296651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="28">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="28">
+        <v>0.1837</v>
+      </c>
+      <c r="F85" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1286210892236384</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3383,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7FE25-5858-4B4A-8ADD-8E8DDF528A8E}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3436,37 +6456,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3640,7 +6660,7 @@
       <c r="E12" s="41">
         <v>0.81669999999999998</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f>(E12-B12)/B12</f>
         <v>-1.4480511644744794E-2</v>
       </c>
@@ -3658,7 +6678,7 @@
       <c r="L12" s="41">
         <v>0.75370000000000004</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <f>(L12-I12)/I12</f>
         <v>-6.7895127380657866E-2</v>
       </c>
@@ -3691,37 +6711,37 @@
       <c r="K14" s="35"/>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="53" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="L15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3739,7 +6759,7 @@
       <c r="E16" s="39">
         <v>0.53049999999999997</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <f>(E16-B16)/B16</f>
         <v>0.83246977547495682</v>
       </c>
@@ -3756,7 +6776,7 @@
       <c r="L16" s="39">
         <v>0.35320000000000001</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="50">
         <f>(L16-I16)/I16</f>
         <v>2.7023060796645706</v>
       </c>
@@ -3775,7 +6795,7 @@
       <c r="E17" s="41">
         <v>0.46510000000000001</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <f t="shared" ref="F17:F25" si="0">(E17-B17)/B17</f>
         <v>1.4608465608465608</v>
       </c>
@@ -3792,7 +6812,7 @@
       <c r="L17" s="41">
         <v>0.25659999999999999</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="50">
         <f t="shared" ref="M17:M25" si="1">(L17-I17)/I17</f>
         <v>1.3825441039925717</v>
       </c>
@@ -3811,7 +6831,7 @@
       <c r="E18" s="39">
         <v>0.42859999999999998</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>1.6246172688303735</v>
       </c>
@@ -3828,7 +6848,7 @@
       <c r="L18" s="39">
         <v>0.1832</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <f t="shared" si="1"/>
         <v>0.58477508650519039</v>
       </c>
@@ -3847,7 +6867,7 @@
       <c r="E19" s="39">
         <v>0.40110000000000001</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>1.6937541974479515</v>
       </c>
@@ -3864,7 +6884,7 @@
       <c r="L19" s="39">
         <v>0.15290000000000001</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <f t="shared" si="1"/>
         <v>0.35070671378091883</v>
       </c>
@@ -3883,7 +6903,7 @@
       <c r="E20" s="39">
         <v>0.37969999999999998</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>1.5690121786197566</v>
       </c>
@@ -3900,7 +6920,7 @@
       <c r="L20" s="39">
         <v>0.1411</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="50">
         <f t="shared" si="1"/>
         <v>0.32363977485928708</v>
       </c>
@@ -3919,7 +6939,7 @@
       <c r="E21" s="41">
         <v>0.35949999999999999</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>1.4339878131347326</v>
       </c>
@@ -3936,7 +6956,7 @@
       <c r="L21" s="41">
         <v>0.1323</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <f t="shared" si="1"/>
         <v>0.21935483870967742</v>
       </c>
@@ -3955,7 +6975,7 @@
       <c r="E22" s="39">
         <v>0.33839999999999998</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
         <v>1.2926829268292681</v>
       </c>
@@ -3972,7 +6992,7 @@
       <c r="L22" s="39">
         <v>0.1293</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="50">
         <f t="shared" si="1"/>
         <v>0.22908745247148285</v>
       </c>
@@ -3991,7 +7011,7 @@
       <c r="E23" s="39">
         <v>0.31950000000000001</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>1.1187002652519895</v>
       </c>
@@ -4008,7 +7028,7 @@
       <c r="L23" s="39">
         <v>0.1268</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="50">
         <f t="shared" si="1"/>
         <v>0.20075757575757572</v>
       </c>
@@ -4027,7 +7047,7 @@
       <c r="E24" s="39">
         <v>0.30080000000000001</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>0.98941798941798953</v>
       </c>
@@ -4044,7 +7064,7 @@
       <c r="L24" s="39">
         <v>0.1227</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="50">
         <f t="shared" si="1"/>
         <v>0.1597353497164461</v>
       </c>
@@ -4063,7 +7083,7 @@
       <c r="E25" s="39">
         <v>0.28220000000000001</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>0.92759562841530052</v>
       </c>
@@ -4080,7 +7100,7 @@
       <c r="L25" s="39">
         <v>0.1191</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <f t="shared" si="1"/>
         <v>0.13105413105413097</v>
       </c>
@@ -4113,37 +7133,37 @@
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:13" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+    <row r="29" spans="1:13" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="53" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="53" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="L29" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="56" t="s">
+      <c r="M29" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4161,7 +7181,7 @@
       <c r="E30" s="39">
         <v>0.36620000000000003</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="50">
         <f t="shared" ref="F30:F32" si="2">(E30-B30)/B30</f>
         <v>10.699680511182109</v>
       </c>
@@ -4178,7 +7198,7 @@
       <c r="L30" s="39">
         <v>0.13320000000000001</v>
       </c>
-      <c r="M30" s="51">
+      <c r="M30" s="50">
         <f t="shared" ref="M30:M32" si="3">(L30-I30)/I30</f>
         <v>221.00000000000006</v>
       </c>
@@ -4197,7 +7217,7 @@
       <c r="E31" s="39">
         <v>0.20549999999999999</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="50">
         <f t="shared" si="2"/>
         <v>17.513513513513512</v>
       </c>
@@ -4214,7 +7234,7 @@
       <c r="L31" s="39">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="50">
         <f t="shared" si="3"/>
         <v>215.24999999999997</v>
       </c>
@@ -4233,7 +7253,7 @@
       <c r="E32" s="39">
         <v>0.1295</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
@@ -4250,371 +7270,318 @@
       <c r="L32" s="39">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="50">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F34" s="51"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="50"/>
       <c r="H35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="63" t="s">
+      <c r="F36" s="50"/>
+      <c r="H36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="71" t="s">
+      <c r="I36" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="71" t="s">
+      <c r="L36" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="71"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="63" t="s">
+      <c r="F37" s="50"/>
+      <c r="H37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="64" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="72" t="s">
+      <c r="L37" t="s">
         <v>44</v>
       </c>
-      <c r="M37" s="71"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="63" t="s">
+      <c r="F38" s="50"/>
+      <c r="H38" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I38" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="65"/>
-      <c r="K38" s="66" t="s">
+      <c r="J38" s="63"/>
+      <c r="K38" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="67" t="s">
+      <c r="L38" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M38" s="71"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="63" t="s">
+      <c r="F39" s="50"/>
+      <c r="H39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" t="s">
         <v>75</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L39" s="71" t="s">
+      <c r="L39" t="s">
         <v>65</v>
       </c>
-      <c r="M39" s="71"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="63" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="63" t="s">
+      <c r="F40" s="50"/>
+      <c r="H40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="71" t="s">
+      <c r="I40" t="s">
         <v>76</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="63" t="s">
+      <c r="K40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="71"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="63" t="s">
+      <c r="F41" s="50"/>
+      <c r="H41" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" t="s">
         <v>77</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="63" t="s">
+      <c r="K41" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="71" t="s">
+      <c r="L41" t="s">
         <v>67</v>
       </c>
-      <c r="M41" s="71"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="63" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" t="s">
         <v>78</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="63" t="s">
+      <c r="K42" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="71" t="s">
+      <c r="L42" t="s">
         <v>68</v>
       </c>
-      <c r="M42" s="71"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="63" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" t="s">
         <v>79</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="63" t="s">
+      <c r="K43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L43" s="71" t="s">
+      <c r="L43" t="s">
         <v>69</v>
       </c>
-      <c r="M43" s="71"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="63" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="63" t="s">
+      <c r="K44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="71" t="s">
+      <c r="L44" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="71"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="63" t="s">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="63" t="s">
+      <c r="K45" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="71" t="s">
+      <c r="L45" t="s">
         <v>70</v>
       </c>
-      <c r="M45" s="71"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="63" t="s">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="71" t="s">
+      <c r="I46" t="s">
         <v>82</v>
       </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="63" t="s">
+      <c r="K46" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="71" t="s">
+      <c r="L46" t="s">
         <v>71</v>
       </c>
-      <c r="M46" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nemo/Desktop/thesis/softRmax-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684C043-9F63-F54D-AA7C-8C7E160FD0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0F427-A3DF-E14A-8C9E-26DE38A83986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23620" yWindow="5140" windowWidth="23700" windowHeight="19380" activeTab="3" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
+    <workbookView xWindow="21560" yWindow="4820" windowWidth="23720" windowHeight="20220" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
   </bookViews>
   <sheets>
     <sheet name="mnist " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="fashion" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="85">
   <si>
     <t xml:space="preserve">conservative_a: </t>
   </si>
@@ -165,39 +164,12 @@
     <t>FGSM attack (White box)</t>
   </si>
   <si>
-    <t>eps 0,6</t>
-  </si>
-  <si>
-    <t>eps 0,8</t>
-  </si>
-  <si>
-    <t>eps 1,0</t>
-  </si>
-  <si>
     <t>eps 0,01</t>
   </si>
   <si>
-    <t>Average attack (all to deer)</t>
-  </si>
-  <si>
-    <t>Average attack (dog to cat)</t>
-  </si>
-  <si>
-    <t>Average attack (all to horse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax + softmax </t>
-  </si>
-  <si>
-    <t>softRmax + softmax</t>
-  </si>
-  <si>
     <t>Function + NLLLoss</t>
   </si>
   <si>
-    <t>Function + Cross-entropy</t>
-  </si>
-  <si>
     <t>Fashion MNIST</t>
   </si>
   <si>
@@ -250,6 +222,78 @@
   </si>
   <si>
     <t>Average attack (eps = 0.3)</t>
+  </si>
+  <si>
+    <t>Deepfool</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>AVG nr iterations</t>
+  </si>
+  <si>
+    <t>AVG robustness</t>
+  </si>
+  <si>
+    <t>AVG time</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>100 samples</t>
+  </si>
+  <si>
+    <t>Mean squared error</t>
+  </si>
+  <si>
+    <t>AVG nr steps</t>
+  </si>
+  <si>
+    <t>Robustness (deepfool)</t>
+  </si>
+  <si>
+    <t>93 samples</t>
+  </si>
+  <si>
+    <t>200 samples</t>
+  </si>
+  <si>
+    <t>50 samples</t>
   </si>
 </sst>
 </file>
@@ -258,10 +302,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[Colour10]0.00%;[Red]0.00%"/>
-    <numFmt numFmtId="165" formatCode="[Green]0.00%;[Red]0.00%"/>
     <numFmt numFmtId="166" formatCode="[Colour10]0%;[Red]0%"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,13 +463,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -465,6 +502,18 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFE5C07B"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -507,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -582,7 +631,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -650,40 +698,39 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="26" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,8 +741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,27 +753,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,17 +766,13 @@
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,26 +780,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A11AE0-B146-4F40-BD5E-14A3A0645060}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1169,7 @@
     <col min="5" max="5" width="12.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="12.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
@@ -1120,58 +1183,41 @@
         <v>4</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1186,12 +1232,8 @@
       <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="120"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1206,12 +1248,8 @@
       <c r="E6" s="8">
         <v>32</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="120"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1226,12 +1264,8 @@
       <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="120"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1246,12 +1280,8 @@
       <c r="E8" s="8">
         <v>128</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="120"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1266,32 +1296,24 @@
       <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="120"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="74">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="103">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="120"/>
+      <c r="I10" s="74"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1306,28 +1328,8 @@
       <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="120"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -1361,12 +1363,6 @@
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="16"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -1378,24 +1374,22 @@
       <c r="E16" s="21"/>
       <c r="F16" s="16"/>
       <c r="H16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>15</v>
@@ -1404,50 +1398,50 @@
         <v>37</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="49" t="s">
+      <c r="H17" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="102" t="s">
+      <c r="J17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="26">
-        <v>0.97089999999999999</v>
+        <v>0.97870000000000001</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="26">
-        <v>0.94650000000000001</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="F18" s="41">
         <f t="shared" ref="F18:F27" si="0">(E18-B18)/B18</f>
-        <v>-2.5131321454320711E-2</v>
-      </c>
-      <c r="H18" s="128">
+        <v>-4.2914069684274869E-3</v>
+      </c>
+      <c r="H18" s="113">
         <v>0</v>
       </c>
-      <c r="I18" s="97">
+      <c r="I18" s="95">
         <v>0.92669999999999997</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="95">
         <v>0.86560000000000004</v>
       </c>
-      <c r="K18" s="93">
-        <f>(J18-I18)/I18</f>
+      <c r="K18" s="91">
+        <f t="shared" ref="K18:K27" si="1">(J18-I18)/I18</f>
         <v>-6.5932880112226103E-2</v>
       </c>
       <c r="L18" s="21"/>
@@ -1458,30 +1452,30 @@
         <v>23</v>
       </c>
       <c r="B19" s="37">
-        <v>0.95379999999999998</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26">
-        <v>0.92710000000000004</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="F19" s="41">
         <f t="shared" si="0"/>
-        <v>-2.7993289997903067E-2</v>
-      </c>
-      <c r="H19" s="129">
+        <v>-5.1824212271973516E-3</v>
+      </c>
+      <c r="H19" s="114">
         <v>1</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="95">
         <v>0.70440000000000003</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="60">
         <v>0.7722</v>
       </c>
-      <c r="K19" s="93">
-        <f>(J19-I19)/I19</f>
+      <c r="K19" s="91">
+        <f t="shared" si="1"/>
         <v>9.6252129471890921E-2</v>
       </c>
       <c r="L19" s="21"/>
@@ -1492,30 +1486,30 @@
         <v>24</v>
       </c>
       <c r="B20" s="26">
-        <v>0.92920000000000003</v>
+        <v>0.94510000000000005</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="26">
-        <v>0.90410000000000001</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="F20" s="41">
         <f t="shared" si="0"/>
-        <v>-2.7012483857081371E-2</v>
-      </c>
-      <c r="H20" s="128">
+        <v>-8.8879483652524321E-3</v>
+      </c>
+      <c r="H20" s="113">
         <v>2</v>
       </c>
-      <c r="I20" s="97">
+      <c r="I20" s="95">
         <v>0.75219999999999998</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="95">
         <v>0.89439999999999997</v>
       </c>
-      <c r="K20" s="93">
-        <f>(J20-I20)/I20</f>
+      <c r="K20" s="91">
+        <f t="shared" si="1"/>
         <v>0.1890454666312151</v>
       </c>
       <c r="L20" s="21"/>
@@ -1526,30 +1520,30 @@
         <v>25</v>
       </c>
       <c r="B21" s="26">
-        <v>0.89259999999999995</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="26">
-        <v>0.88349999999999995</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="F21" s="41">
         <f t="shared" si="0"/>
-        <v>-1.019493614160878E-2</v>
-      </c>
-      <c r="H21" s="128">
+        <v>-4.3706293706293744E-3</v>
+      </c>
+      <c r="H21" s="113">
         <v>3</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="95">
         <v>0.89780000000000004</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="95">
         <v>0.93220000000000003</v>
       </c>
-      <c r="K21" s="93">
-        <f>(J21-I21)/I21</f>
+      <c r="K21" s="91">
+        <f t="shared" si="1"/>
         <v>3.8315883270216067E-2</v>
       </c>
       <c r="L21" s="21"/>
@@ -1560,30 +1554,30 @@
         <v>26</v>
       </c>
       <c r="B22" s="26">
-        <v>0.85319999999999996</v>
+        <v>0.874</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="26">
-        <v>0.8599</v>
+        <v>0.8881</v>
       </c>
       <c r="F22" s="41">
         <f t="shared" si="0"/>
-        <v>7.8527894983591653E-3</v>
-      </c>
-      <c r="H22" s="129">
+        <v>1.6132723112128149E-2</v>
+      </c>
+      <c r="H22" s="114">
         <v>4</v>
       </c>
-      <c r="I22" s="127">
+      <c r="I22" s="112">
         <v>0.81559999999999999</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="108">
         <v>0.71779999999999999</v>
       </c>
-      <c r="K22" s="93">
-        <f>(J22-I22)/I22</f>
+      <c r="K22" s="91">
+        <f t="shared" si="1"/>
         <v>-0.11991172143207454</v>
       </c>
       <c r="L22" s="21"/>
@@ -1594,30 +1588,30 @@
         <v>27</v>
       </c>
       <c r="B23" s="37">
-        <v>0.79930000000000001</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="26">
-        <v>0.83389999999999997</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="F23" s="41">
         <f t="shared" si="0"/>
-        <v>4.3287876892280704E-2</v>
-      </c>
-      <c r="H23" s="128">
+        <v>5.010336860026756E-2</v>
+      </c>
+      <c r="H23" s="113">
         <v>5</v>
       </c>
-      <c r="I23" s="126">
+      <c r="I23" s="60">
         <v>0.79890000000000005</v>
       </c>
-      <c r="J23" s="126">
+      <c r="J23" s="60">
         <v>0.72889999999999999</v>
       </c>
-      <c r="K23" s="93">
-        <f>(J23-I23)/I23</f>
+      <c r="K23" s="91">
+        <f t="shared" si="1"/>
         <v>-8.7620478157466583E-2</v>
       </c>
       <c r="L23" s="21"/>
@@ -1628,30 +1622,30 @@
         <v>28</v>
       </c>
       <c r="B24" s="26">
-        <v>0.73780000000000001</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="26">
-        <v>0.82120000000000004</v>
+        <v>0.84179999999999999</v>
       </c>
       <c r="F24" s="41">
         <f t="shared" si="0"/>
-        <v>0.11303876389265387</v>
-      </c>
-      <c r="H24" s="128">
+        <v>0.10865270644014226</v>
+      </c>
+      <c r="H24" s="113">
         <v>6</v>
       </c>
       <c r="I24" s="22">
         <v>0.76219999999999999</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="60">
         <v>0.67890000000000006</v>
       </c>
-      <c r="K24" s="93">
-        <f>(J24-I24)/I24</f>
+      <c r="K24" s="91">
+        <f t="shared" si="1"/>
         <v>-0.10928890055103638</v>
       </c>
       <c r="L24" s="21"/>
@@ -1662,30 +1656,30 @@
         <v>29</v>
       </c>
       <c r="B25" s="26">
-        <v>0.66579999999999995</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="26">
-        <v>0.79679999999999995</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="0"/>
-        <v>0.19675578251727247</v>
-      </c>
-      <c r="H25" s="129">
+        <v>0.18530305222045421</v>
+      </c>
+      <c r="H25" s="114">
         <v>7</v>
       </c>
       <c r="I25" s="22">
         <v>0.79669999999999996</v>
       </c>
-      <c r="J25" s="126">
+      <c r="J25" s="60">
         <v>0.59439999999999993</v>
       </c>
-      <c r="K25" s="93">
-        <f>(J25-I25)/I25</f>
+      <c r="K25" s="91">
+        <f t="shared" si="1"/>
         <v>-0.25392243002384846</v>
       </c>
       <c r="L25" s="21"/>
@@ -1696,30 +1690,30 @@
         <v>30</v>
       </c>
       <c r="B26" s="26">
-        <v>0.58589999999999998</v>
+        <v>0.61329999999999996</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="26">
-        <v>0.77429999999999999</v>
+        <v>0.79779999999999995</v>
       </c>
       <c r="F26" s="41">
         <f t="shared" si="0"/>
-        <v>0.32155657962109579</v>
-      </c>
-      <c r="H26" s="128">
+        <v>0.30083156693298552</v>
+      </c>
+      <c r="H26" s="113">
         <v>8</v>
       </c>
       <c r="I26" s="22">
         <v>0.81220000000000003</v>
       </c>
-      <c r="J26" s="126">
+      <c r="J26" s="60">
         <v>0.86890000000000001</v>
       </c>
-      <c r="K26" s="93">
-        <f>(J26-I26)/I26</f>
+      <c r="K26" s="91">
+        <f t="shared" si="1"/>
         <v>6.9810391529179963E-2</v>
       </c>
       <c r="L26" s="21"/>
@@ -1730,39 +1724,35 @@
         <v>31</v>
       </c>
       <c r="B27" s="37">
-        <v>0.50519999999999998</v>
+        <v>0.52529999999999999</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="37">
-        <v>0.75539999999999996</v>
+        <v>0.77769999999999995</v>
       </c>
       <c r="F27" s="41">
         <f t="shared" si="0"/>
-        <v>0.49524940617577196</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="128">
+        <v>0.48048734056729481</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="113">
         <v>9</v>
       </c>
       <c r="I27" s="22">
         <v>0.73</v>
       </c>
-      <c r="J27" s="126">
+      <c r="J27" s="60">
         <v>0.75329999999999997</v>
       </c>
-      <c r="K27" s="93">
-        <f>(J27-I27)/I27</f>
+      <c r="K27" s="91">
+        <f t="shared" si="1"/>
         <v>3.1917808219178063E-2</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="41"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -1771,39 +1761,30 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="16"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="18"/>
       <c r="D30" s="22"/>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
+      <c r="H30" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>15</v>
@@ -1811,227 +1792,295 @@
       <c r="F31" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
+      <c r="I31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="37">
-        <v>0.90090000000000003</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="37">
-        <v>0.99165999999999999</v>
+      <c r="A32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.99060000000000004</v>
       </c>
       <c r="F32" s="41">
-        <f>(E32-B32)/B32</f>
-        <v>0.10074370074370069</v>
+        <f t="shared" ref="F32:F41" si="2">(E32-B32)/B32</f>
+        <v>4.0543279951348096E-3</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="59">
+        <v>0.255</v>
+      </c>
+      <c r="J32" s="59">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="K32" s="41">
+        <f>(J32-I32)/I32</f>
+        <v>3.3294117647058825</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>25</v>
+      <c r="A33" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="B33" s="37">
-        <v>0.77039999999999997</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0.96516000000000002</v>
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0.98760000000000003</v>
       </c>
       <c r="F33" s="41">
-        <f>(E33-B33)/B33</f>
-        <v>0.2528037383177571</v>
+        <f t="shared" si="2"/>
+        <v>2.5378134199574233E-3</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K33" s="41">
+        <f>(J33-I33)/I33</f>
+        <v>19.9375</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="37">
-        <v>0.58679999999999999</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="37">
-        <v>0.90922000000000003</v>
+      <c r="A34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0.98450000000000004</v>
       </c>
       <c r="F34" s="41">
-        <f>(E34-B34)/B34</f>
-        <v>0.54945466939331977</v>
+        <f t="shared" si="2"/>
+        <v>1.5259409969481759E-3</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="5">
+        <v>8.1539999999999999</v>
+      </c>
+      <c r="J34" s="5">
+        <v>15.361000000000001</v>
+      </c>
+      <c r="K34" s="41">
+        <f>(J34-I34)/I34</f>
+        <v>0.88386068187392697</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="41"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="37">
-        <v>0.39739999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="B35" s="26">
+        <v>0.98019999999999996</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E35" s="26">
-        <v>0.78263000000000005</v>
+        <v>0.9788</v>
       </c>
       <c r="F35" s="41">
-        <f>(E35-B35)/B35</f>
-        <v>0.96937594363361879</v>
+        <f t="shared" si="2"/>
+        <v>-1.4282799428687583E-3</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="K35" s="41">
+        <f>(J35-I35)/I35</f>
+        <v>6.7283950617283956</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" s="26">
-        <v>0.21920000000000001</v>
+        <v>0.97509999999999997</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0.59421000000000002</v>
+        <v>26</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.9738</v>
       </c>
       <c r="F36" s="41">
-        <f>(E36-B36)/B36</f>
-        <v>1.7108120437956205</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-1.33319659522097E-3</v>
+      </c>
+      <c r="K36" s="41"/>
       <c r="L36" s="21"/>
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="42"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
+      <c r="A37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="32">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F37" s="91">
+        <f t="shared" si="2"/>
+        <v>-8.9589125733703333E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="94">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="94">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="F38" s="91">
+        <f t="shared" si="2"/>
+        <v>-1.6068836823553763E-2</v>
+      </c>
       <c r="L38" s="21"/>
       <c r="M38" s="41"/>
     </row>
-    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="16"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-    </row>
-    <row r="40" spans="1:13" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="57"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="94">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="94">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="F39" s="91">
+        <f t="shared" si="2"/>
+        <v>-2.7277459656428943E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="94">
+        <v>0.9516</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="94">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="F40" s="91">
+        <f t="shared" si="2"/>
+        <v>-4.2770071458596008E-2</v>
+      </c>
+      <c r="L40" s="54"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="26">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="26">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="F41" s="41">
-        <f t="shared" ref="F41:F50" si="1">(E41-B41)/B41</f>
-        <v>4.0543279951348096E-3</v>
+      <c r="A41" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="110">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="C41" s="95"/>
+      <c r="D41" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="94">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F41" s="91">
+        <f t="shared" si="2"/>
+        <v>-6.5032887757267163E-2</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="37">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="F42" s="41">
-        <f t="shared" si="1"/>
-        <v>2.5378134199574233E-3</v>
-      </c>
-      <c r="G42" s="60"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="59"/>
       <c r="L42" s="17"/>
       <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="26">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="26">
-        <v>0.98450000000000004</v>
-      </c>
-      <c r="F43" s="41">
-        <f t="shared" si="1"/>
-        <v>1.5259409969481759E-3</v>
-      </c>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
       <c r="H43" s="19"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -2039,396 +2088,403 @@
       <c r="L43" s="21"/>
       <c r="M43" s="41"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="26">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="26">
-        <v>0.9788</v>
-      </c>
-      <c r="F44" s="41">
-        <f t="shared" si="1"/>
-        <v>-1.4282799428687583E-3</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="19"/>
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L44" s="21"/>
       <c r="M44" s="41"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="26">
-        <v>0.97509999999999997</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="26">
-        <v>0.9738</v>
-      </c>
-      <c r="F45" s="41">
-        <f t="shared" si="1"/>
-        <v>-1.33319659522097E-3</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="19"/>
+    <row r="45" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="119" t="s">
+        <v>63</v>
+      </c>
       <c r="L45" s="21"/>
       <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="32">
-        <v>0.97109999999999996</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="32">
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="F46" s="93">
-        <f t="shared" si="1"/>
-        <v>-8.9589125733703333E-3</v>
-      </c>
-      <c r="G46" s="94"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="16"/>
+      <c r="A46" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="37">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0.99165999999999999</v>
+      </c>
+      <c r="F46" s="41">
+        <f>(E46-B46)/B46</f>
+        <v>0.10074370074370069</v>
+      </c>
+      <c r="G46" s="92"/>
+      <c r="H46" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="59">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="J46" s="59">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="K46" s="41">
+        <f>(J46-I46)/I46</f>
+        <v>-9.3296648324162082E-2</v>
+      </c>
       <c r="L46" s="17"/>
       <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="96">
-        <v>0.96460000000000001</v>
-      </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="96">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="F47" s="93">
-        <f t="shared" si="1"/>
-        <v>-1.6068836823553763E-2</v>
-      </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="19"/>
+      <c r="A47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="37">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0.96516000000000002</v>
+      </c>
+      <c r="F47" s="41">
+        <f>(E47-B47)/B47</f>
+        <v>0.2528037383177571</v>
+      </c>
+      <c r="G47" s="92"/>
+      <c r="H47" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="141">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="J47" s="141">
+        <v>1.252E-2</v>
+      </c>
+      <c r="K47" s="41">
+        <f t="shared" ref="K47" si="3">(J47-I47)/I47</f>
+        <v>1.8649885583524031</v>
+      </c>
       <c r="L47" s="21"/>
       <c r="M47" s="41"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="96">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="96">
-        <v>0.93430000000000002</v>
-      </c>
-      <c r="F48" s="93">
-        <f t="shared" si="1"/>
-        <v>-2.7277459656428943E-2</v>
-      </c>
-      <c r="G48" s="94"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="19"/>
+      <c r="A48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="37">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0.90922000000000003</v>
+      </c>
+      <c r="F48" s="41">
+        <f>(E48-B48)/B48</f>
+        <v>0.54945466939331977</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="5">
+        <v>44832</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45807</v>
+      </c>
+      <c r="K48" s="41">
+        <f>(I48-J48)/J48</f>
+        <v>-2.1284956447704499E-2</v>
+      </c>
       <c r="L48" s="21"/>
       <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="96">
-        <v>0.9516</v>
-      </c>
-      <c r="C49" s="97"/>
-      <c r="D49" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="96">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="F49" s="93">
-        <f t="shared" si="1"/>
-        <v>-4.2770071458596008E-2</v>
-      </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="19"/>
+      <c r="A49" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="37">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="26">
+        <v>0.78263000000000005</v>
+      </c>
+      <c r="F49" s="41">
+        <f>(E49-B49)/B49</f>
+        <v>0.96937594363361879</v>
+      </c>
+      <c r="G49" s="92"/>
+      <c r="H49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="143">
+        <v>4.601</v>
+      </c>
+      <c r="J49" s="5">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="K49" s="41"/>
       <c r="L49" s="21"/>
       <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="124">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="95" t="s">
+      <c r="B50" s="26">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="96">
-        <v>0.88129999999999997</v>
-      </c>
-      <c r="F50" s="93">
-        <f t="shared" si="1"/>
-        <v>-6.5032887757267163E-2</v>
-      </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
+      <c r="E50" s="21">
+        <v>0.59421000000000002</v>
+      </c>
+      <c r="F50" s="41">
+        <f>(E50-B50)/B50</f>
+        <v>1.7108120437956205</v>
+      </c>
+      <c r="G50" s="92"/>
       <c r="K50" s="19"/>
       <c r="L50" s="21"/>
       <c r="M50" s="41"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-    </row>
-    <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
+      <c r="G52" s="92"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G53" s="133"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="92"/>
     </row>
     <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="101"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="117"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="95"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
-      <c r="L55" s="118"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="95"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="94"/>
-      <c r="L56" s="118"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="95"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
-      <c r="L57" s="118"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="144"/>
+    </row>
+    <row r="56" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="G56" s="133"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="144"/>
+    </row>
+    <row r="57" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="G57" s="133"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="144"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="95"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="94"/>
-      <c r="L58" s="118"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="144"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="95"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="94"/>
-      <c r="L59" s="119"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="146"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="120"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="94"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="127"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="95"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="94"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="127"/>
     </row>
     <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="94"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
     </row>
     <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="131"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="101"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="97"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="95"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="92"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="95"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="125"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="111"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="95"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="94"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="92"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="95"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="94"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="92"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="95"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="94"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="120"/>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="108"/>
+      <c r="C68"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="92"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
     </row>
     <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="57"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
@@ -2439,7 +2495,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="16"/>
-      <c r="B81" s="92"/>
+      <c r="B81" s="90"/>
       <c r="D81" s="16"/>
       <c r="E81" s="20"/>
       <c r="F81" s="41"/>
@@ -2467,7 +2523,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
-      <c r="B85" s="92"/>
+      <c r="B85" s="90"/>
       <c r="D85" s="16"/>
       <c r="E85" s="20"/>
       <c r="F85" s="41"/>
@@ -2504,11 +2560,11 @@
       <c r="A92" s="23"/>
     </row>
     <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="57"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="56"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
@@ -2519,9 +2575,9 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="16"/>
-      <c r="B95" s="92"/>
+      <c r="B95" s="90"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="92"/>
+      <c r="E95" s="90"/>
       <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2547,9 +2603,9 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="16"/>
-      <c r="B99" s="92"/>
+      <c r="B99" s="90"/>
       <c r="D99" s="16"/>
-      <c r="E99" s="92"/>
+      <c r="E99" s="90"/>
       <c r="F99" s="41"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2591,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B086D-4A69-674E-A1F5-47C7ABBEF27F}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F71" sqref="A53:F71"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2621,8 +2677,8 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
-        <v>50</v>
+      <c r="A2" s="102" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2630,12 +2686,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -2643,14 +2694,8 @@
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-    </row>
-    <row r="4" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
@@ -2667,12 +2712,12 @@
       <c r="F4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="136"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2688,12 +2733,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="137"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2709,12 +2751,9 @@
         <v>32</v>
       </c>
       <c r="F6" s="40"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="137"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2730,12 +2769,9 @@
         <v>10</v>
       </c>
       <c r="F7" s="40"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="137"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2751,12 +2787,9 @@
         <v>128</v>
       </c>
       <c r="F8" s="40"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="137"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2772,12 +2805,9 @@
         <v>10</v>
       </c>
       <c r="F9" s="40"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="137"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -2793,12 +2823,9 @@
         <v>1E-3</v>
       </c>
       <c r="F10" s="40"/>
-      <c r="H10" s="120"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="137"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2814,12 +2841,9 @@
         <v>3</v>
       </c>
       <c r="F11" s="40"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="137"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2835,21 +2859,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="40"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="137"/>
+      <c r="I12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F13" s="40"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="137"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -2888,7 +2904,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="137"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -2899,14 +2915,16 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="40"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="22"/>
+      <c r="H16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="137"/>
-    </row>
-    <row r="17" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>6</v>
       </c>
@@ -2923,12 +2941,20 @@
       <c r="F17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="136"/>
+      <c r="H17" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="116"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
@@ -2948,10 +2974,15 @@
         <f t="shared" ref="F18:F27" si="0">(E18-B18)/B18</f>
         <v>3.9571858669056308E-3</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="19"/>
+      <c r="H18" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="91" t="e">
+        <f t="shared" ref="K18:K27" si="1">(J18-I18)/I18</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L18" s="21"/>
       <c r="M18" s="41"/>
     </row>
@@ -2973,10 +3004,15 @@
         <f t="shared" si="0"/>
         <v>4.93633139909726E-4</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="95"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="41"/>
     </row>
@@ -2998,10 +3034,15 @@
         <f t="shared" si="0"/>
         <v>-4.960869873345858E-4</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="19"/>
+      <c r="H20" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L20" s="21"/>
       <c r="M20" s="41"/>
     </row>
@@ -3023,10 +3064,15 @@
         <f t="shared" si="0"/>
         <v>2.0094454134663721E-3</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="19"/>
+      <c r="H21" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L21" s="21"/>
       <c r="M21" s="41"/>
     </row>
@@ -3048,10 +3094,15 @@
         <f t="shared" si="0"/>
         <v>3.5376142247159018E-3</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="19"/>
+      <c r="H22" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="112"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L22" s="21"/>
       <c r="M22" s="41"/>
     </row>
@@ -3073,10 +3124,15 @@
         <f t="shared" si="0"/>
         <v>4.6184781015017008E-3</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="16"/>
+      <c r="H23" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="M23" s="41"/>
     </row>
@@ -3098,10 +3154,15 @@
         <f t="shared" si="0"/>
         <v>1.6306095756770025E-2</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L24" s="21"/>
       <c r="M24" s="41"/>
     </row>
@@ -3123,10 +3184,15 @@
         <f t="shared" si="0"/>
         <v>4.4851498394577229E-2</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="19"/>
+      <c r="H25" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L25" s="21"/>
       <c r="M25" s="41"/>
     </row>
@@ -3148,10 +3214,15 @@
         <f t="shared" si="0"/>
         <v>7.586960565476189E-2</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="19"/>
+      <c r="H26" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L26" s="21"/>
       <c r="M26" s="41"/>
     </row>
@@ -3173,21 +3244,21 @@
         <f t="shared" si="0"/>
         <v>0.15825227924930799</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16"/>
+      <c r="H27" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L27" s="17"/>
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F28" s="40"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="137"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -3196,30 +3267,20 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="40"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="137"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="40"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="L30" s="21"/>
-      <c r="M30" s="137"/>
-    </row>
-    <row r="31" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>6</v>
       </c>
@@ -3233,419 +3294,476 @@
       <c r="E31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="136"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="54"/>
+      <c r="M31" s="116"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="37">
-        <v>0.99263999999999997</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="37">
-        <v>0.99165999999999999</v>
+      <c r="A32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="60">
+        <v>0.99755000000000005</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.99853000000000003</v>
       </c>
       <c r="F32" s="41">
-        <f>(E32-B32)/B32</f>
-        <v>-9.87266279819452E-4</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="16"/>
+        <f t="shared" ref="F32:F41" si="2">(E32-B32)/B32</f>
+        <v>9.824068968973794E-4</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="59">
+        <v>0.16</v>
+      </c>
+      <c r="K32" s="41">
+        <f>(J32-I32)/I32</f>
+        <v>15</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="26">
-        <v>0.98085999999999995</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0.96516000000000002</v>
+      <c r="A33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="99">
+        <v>0.99656999999999996</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0.99755000000000005</v>
       </c>
       <c r="F33" s="41">
-        <f>(E33-B33)/B33</f>
-        <v>-1.6006361764166074E-2</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="19"/>
+        <f t="shared" si="2"/>
+        <v>9.8337296928473856E-4</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K33" s="41"/>
       <c r="L33" s="21"/>
       <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="37">
-        <v>0.95387999999999995</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="37">
-        <v>0.90922000000000003</v>
+      <c r="A34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="60">
+        <v>0.99558000000000002</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0.99804000000000004</v>
       </c>
       <c r="F34" s="41">
-        <f>(E34-B34)/B34</f>
-        <v>-4.6819306411707895E-2</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="16"/>
+        <f t="shared" si="2"/>
+        <v>2.4709214729102813E-3</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="J34" s="5">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="K34" s="41">
+        <f>(J34-I34)/I34</f>
+        <v>1.2095541401273884</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="M34" s="41"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="26">
-        <v>0.88910999999999996</v>
-      </c>
-      <c r="C35" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="60">
+        <v>0.99312999999999996</v>
+      </c>
       <c r="D35" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E35" s="26">
-        <v>0.78263000000000005</v>
+        <v>0.99656999999999996</v>
       </c>
       <c r="F35" s="41">
-        <f>(E35-B35)/B35</f>
-        <v>-0.11976020964785</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="19"/>
+        <f t="shared" si="2"/>
+        <v>3.4637962804466675E-3</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="K35" s="41">
+        <f>(J35-I35)/I35</f>
+        <v>0.82445141065830707</v>
+      </c>
       <c r="L35" s="21"/>
       <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="37">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="37">
-        <v>0.59421000000000002</v>
+      <c r="A36" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="60">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.99411000000000005</v>
       </c>
       <c r="F36" s="41">
-        <f>(E36-B36)/B36</f>
-        <v>-0.1877938764352105</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-4.9266036597626222E-4</v>
+      </c>
       <c r="L36" s="17"/>
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
+      <c r="A37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="99">
+        <v>0.99117</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0.99214999999999998</v>
+      </c>
+      <c r="F37" s="41">
+        <f t="shared" si="2"/>
+        <v>9.8873049022870025E-4</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="41"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="60">
+        <v>0.99214999999999998</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0.98724000000000001</v>
+      </c>
+      <c r="F38" s="41">
+        <f t="shared" si="2"/>
+        <v>-4.948848460414222E-3</v>
+      </c>
+      <c r="K38" s="41"/>
       <c r="L38" s="21"/>
       <c r="M38" s="41"/>
     </row>
-    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-    </row>
-    <row r="40" spans="1:13" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="19"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="60">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="F39" s="41">
+        <f t="shared" si="2"/>
+        <v>-5.4561988481358703E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="60">
+        <v>0.98773</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0.97792000000000001</v>
+      </c>
+      <c r="F40" s="41">
+        <f t="shared" si="2"/>
+        <v>-9.9318639709232125E-3</v>
+      </c>
       <c r="L40" s="21"/>
       <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="61">
-        <v>0.99755000000000005</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="26">
-        <v>0.99853000000000003</v>
+      <c r="A41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="99">
+        <v>0.98675000000000002</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="37">
+        <v>0.96762000000000004</v>
       </c>
       <c r="F41" s="41">
-        <f t="shared" ref="F41:F50" si="1">(E41-B41)/B41</f>
-        <v>9.824068968973794E-4</v>
+        <f t="shared" si="2"/>
+        <v>-1.9386876108436767E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="103">
-        <v>0.99656999999999996</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0.99755000000000005</v>
-      </c>
-      <c r="F42" s="41">
-        <f t="shared" si="1"/>
-        <v>9.8337296928473856E-4</v>
-      </c>
-      <c r="M42" s="105"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="61">
-        <v>0.99558000000000002</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="26">
-        <v>0.99804000000000004</v>
-      </c>
-      <c r="F43" s="41">
-        <f t="shared" si="1"/>
-        <v>2.4709214729102813E-3</v>
-      </c>
+      <c r="M42" s="101"/>
     </row>
     <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="61">
-        <v>0.99312999999999996</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="26">
-        <v>0.99656999999999996</v>
-      </c>
-      <c r="F44" s="41">
-        <f t="shared" si="1"/>
-        <v>3.4637962804466675E-3</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="52"/>
+      <c r="A44" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="40"/>
+      <c r="H44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="L44" s="21"/>
       <c r="M44" s="16"/>
     </row>
-    <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="61">
-        <v>0.99460000000000004</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="26">
-        <v>0.99411000000000005</v>
-      </c>
-      <c r="F45" s="41">
-        <f t="shared" si="1"/>
-        <v>-4.9266036597626222E-4</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
+    <row r="45" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="54"/>
       <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="103">
-        <v>0.99117</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>27</v>
+      <c r="A46" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="37">
+        <v>0.99263999999999997</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E46" s="37">
-        <v>0.99214999999999998</v>
+        <v>0.99165999999999999</v>
       </c>
       <c r="F46" s="41">
-        <f t="shared" si="1"/>
-        <v>9.8873049022870025E-4</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="58"/>
+        <f>(E46-B46)/B46</f>
+        <v>-9.87266279819452E-4</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="59">
+        <v>0.23765</v>
+      </c>
+      <c r="J46" s="59">
+        <v>0.17773</v>
+      </c>
+      <c r="K46" s="41">
+        <f>(J46-I46)/I46</f>
+        <v>-0.25213549337260677</v>
+      </c>
+      <c r="L46" s="57"/>
       <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="61">
-        <v>0.99214999999999998</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B47" s="26">
+        <v>0.98085999999999995</v>
+      </c>
+      <c r="C47" s="24"/>
       <c r="D47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E47" s="26">
-        <v>0.98724000000000001</v>
+        <v>0.96516000000000002</v>
       </c>
       <c r="F47" s="41">
-        <f t="shared" si="1"/>
-        <v>-4.948848460414222E-3</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="59"/>
+        <f>(E47-B47)/B47</f>
+        <v>-1.6006361764166074E-2</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="141">
+        <v>6.5199999999999998E-3</v>
+      </c>
+      <c r="J47" s="141">
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="K47" s="41">
+        <f t="shared" ref="K47" si="3">(J47-I47)/I47</f>
+        <v>-0.48312883435582815</v>
+      </c>
+      <c r="L47" s="58"/>
       <c r="M47" s="41"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="61">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="26">
-        <v>0.98429999999999995</v>
+      <c r="A48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="37">
+        <v>0.95387999999999995</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0.90922000000000003</v>
       </c>
       <c r="F48" s="41">
-        <f t="shared" si="1"/>
-        <v>-5.4561988481358703E-3</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="58"/>
+        <f>(E48-B48)/B48</f>
+        <v>-4.6819306411707895E-2</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="5">
+        <v>48602</v>
+      </c>
+      <c r="J48" s="5">
+        <v>51349</v>
+      </c>
+      <c r="K48" s="41">
+        <f>(I48-J48)/J48</f>
+        <v>-5.3496660110226101E-2</v>
+      </c>
+      <c r="L48" s="57"/>
       <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="61">
-        <v>0.98773</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B49" s="26">
+        <v>0.88910999999999996</v>
+      </c>
+      <c r="C49" s="24"/>
       <c r="D49" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="26">
-        <v>0.97792000000000001</v>
+        <v>0.78263000000000005</v>
       </c>
       <c r="F49" s="41">
-        <f t="shared" si="1"/>
-        <v>-9.9318639709232125E-3</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="58"/>
+        <f>(E49-B49)/B49</f>
+        <v>-0.11976020964785</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="143">
+        <v>4.601</v>
+      </c>
+      <c r="J49" s="143">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="K49" s="41"/>
+      <c r="L49" s="57"/>
       <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="103">
-        <v>0.98675000000000002</v>
-      </c>
+      <c r="B50" s="37">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="C50" s="28"/>
       <c r="D50" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="37">
-        <v>0.96762000000000004</v>
+        <v>0.59421000000000002</v>
       </c>
       <c r="F50" s="41">
-        <f t="shared" si="1"/>
-        <v>-1.9386876108436767E-2</v>
+        <f>(E50-B50)/B50</f>
+        <v>-0.1877938764352105</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="58"/>
+      <c r="L50" s="57"/>
       <c r="M50" s="41"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3653,7 +3771,7 @@
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="59"/>
+      <c r="L51" s="58"/>
       <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3661,233 +3779,182 @@
       <c r="I52" s="26"/>
       <c r="J52" s="24"/>
       <c r="K52" s="19"/>
-      <c r="L52" s="53"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="41"/>
     </row>
-    <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H53" s="19"/>
       <c r="I53" s="26"/>
       <c r="J53" s="24"/>
       <c r="K53" s="19"/>
-      <c r="L53" s="53"/>
+      <c r="L53" s="52"/>
       <c r="M53" s="41"/>
     </row>
-    <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="117"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H54" s="19"/>
       <c r="I54" s="26"/>
       <c r="J54" s="24"/>
       <c r="K54" s="19"/>
-      <c r="L54" s="53"/>
+      <c r="L54" s="52"/>
       <c r="M54" s="41"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="95"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="93"/>
       <c r="H55" s="19"/>
       <c r="I55" s="26"/>
       <c r="J55" s="24"/>
       <c r="K55" s="19"/>
-      <c r="L55" s="53"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="41"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="95"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="93"/>
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="95"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="93"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="93"/>
       <c r="H58" s="23"/>
       <c r="I58" s="21"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="52"/>
+      <c r="K58" s="51"/>
       <c r="L58" s="21"/>
       <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="93"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="57"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="56"/>
     </row>
     <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="120"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="139"/>
+      <c r="E60" s="118"/>
       <c r="F60" s="41"/>
       <c r="H60" s="19"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
       <c r="K60" s="19"/>
-      <c r="L60" s="58"/>
+      <c r="L60" s="57"/>
       <c r="M60" s="41"/>
     </row>
     <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="120"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="139"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="41"/>
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
       <c r="J61" s="18"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="59"/>
+      <c r="L61" s="58"/>
       <c r="M61" s="41"/>
     </row>
     <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
       <c r="K62" s="19"/>
-      <c r="L62" s="58"/>
+      <c r="L62" s="57"/>
       <c r="M62" s="41"/>
     </row>
     <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="131"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="117"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="106"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
       <c r="K63" s="19"/>
-      <c r="L63" s="58"/>
+      <c r="L63" s="57"/>
       <c r="M63" s="41"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="95"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="93"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="91"/>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
       <c r="K64" s="19"/>
-      <c r="L64" s="58"/>
+      <c r="L64" s="57"/>
       <c r="M64" s="41"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="95"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="93"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="91"/>
       <c r="I65" s="26"/>
       <c r="J65" s="26"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="59"/>
+      <c r="L65" s="58"/>
       <c r="M65" s="41"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="95"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="93"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="91"/>
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
       <c r="K66" s="19"/>
-      <c r="L66" s="58"/>
+      <c r="L66" s="57"/>
       <c r="M66" s="41"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="95"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="93"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="91"/>
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
       <c r="K67" s="19"/>
-      <c r="L67" s="58"/>
+      <c r="L67" s="57"/>
       <c r="M67" s="41"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="95"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="93"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="108"/>
+      <c r="C68"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="91"/>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="58"/>
+      <c r="L68" s="57"/>
       <c r="M68" s="41"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="120"/>
       <c r="D69" s="19"/>
       <c r="E69" s="21"/>
       <c r="F69" s="41"/>
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
       <c r="K69" s="19"/>
-      <c r="L69" s="58"/>
+      <c r="L69" s="57"/>
       <c r="M69" s="41"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="120"/>
       <c r="D70" s="19"/>
       <c r="E70" s="21"/>
       <c r="F70" s="41"/>
@@ -3897,7 +3964,6 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="21"/>
-      <c r="C71" s="120"/>
       <c r="D71" s="19"/>
       <c r="E71" s="21"/>
       <c r="F71" s="41"/>
@@ -3912,11 +3978,11 @@
       <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="57"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="56"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
@@ -3996,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7FE25-5858-4B4A-8ADD-8E8DDF528A8E}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4010,9 +4076,10 @@
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4021,31 +4088,20 @@
         <v>38</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
-        <v>50</v>
-      </c>
+      <c r="A2" s="102"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="H2" s="102"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -4054,46 +4110,32 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>37</v>
-      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="124"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4108,19 +4150,9 @@
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10</v>
-      </c>
-      <c r="M5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4135,19 +4167,9 @@
       <c r="E6" s="2">
         <v>256</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2">
-        <v>256</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2">
-        <v>256</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4162,19 +4184,9 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4189,21 +4201,11 @@
       <c r="E8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="8"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
+    </row>
+    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4216,21 +4218,11 @@
       <c r="E9" s="15">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="15">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="15">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="138"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="127"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4243,28 +4235,20 @@
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="5"/>
+      <c r="I10" s="139"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="127"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="104">
         <v>0.85270000000000001</v>
       </c>
       <c r="C12" s="33"/>
@@ -4279,23 +4263,8 @@
         <v>-6.8019233024510699E-3</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="32">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="32">
-        <v>0.81669999999999998</v>
-      </c>
-      <c r="M12" s="41">
-        <f>(L12-I12)/I12</f>
-        <v>-1.4480511644744794E-2</v>
-      </c>
+      <c r="L12" s="129"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
@@ -4303,12 +4272,8 @@
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="127"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -4319,410 +4284,337 @@
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="H14" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+    </row>
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="38" t="s">
+      <c r="H15" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="98" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="69">
         <v>0.2402</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="69">
         <v>0.51749999999999996</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <f>(E16-B16)/B16</f>
         <v>1.1544546211490425</v>
       </c>
-      <c r="H16" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="109">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="109">
-        <v>0.53049999999999997</v>
-      </c>
-      <c r="M16" s="41">
-        <f>(L16-I16)/I16</f>
-        <v>0.83246977547495682</v>
+      <c r="H16" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="91" t="e">
+        <f t="shared" ref="K16:K25" si="0">(J16-I16)/I16</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="70">
         <v>0.1226</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="70">
         <v>0.45929999999999999</v>
       </c>
-      <c r="F17" s="65">
-        <f t="shared" ref="F17:F25" si="0">(E17-B17)/B17</f>
+      <c r="F17" s="64">
+        <f t="shared" ref="F17:F25" si="1">(E17-B17)/B17</f>
         <v>2.7463295269168024</v>
       </c>
-      <c r="H17" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="32">
-        <v>0.189</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="32">
-        <v>0.46510000000000001</v>
-      </c>
-      <c r="M17" s="41">
-        <f t="shared" ref="M17:M25" si="1">(L17-I17)/I17</f>
-        <v>1.4608465608465608</v>
+      <c r="H17" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="95"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="91" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="69">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>0.42220000000000002</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
+        <f t="shared" si="1"/>
+        <v>3.609170305676856</v>
+      </c>
+      <c r="H18" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>3.609170305676856</v>
-      </c>
-      <c r="H18" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="109">
-        <v>0.1633</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="109">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="M18" s="41">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="69">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.3876</v>
+      </c>
+      <c r="F19" s="64">
         <f t="shared" si="1"/>
-        <v>1.6246172688303735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="70">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="70">
-        <v>0.3876</v>
-      </c>
-      <c r="F19" s="65">
+        <v>3.8693467336683414</v>
+      </c>
+      <c r="H19" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>3.8693467336683414</v>
-      </c>
-      <c r="H19" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="109">
-        <v>0.1489</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="109">
-        <v>0.40110000000000001</v>
-      </c>
-      <c r="M19" s="41">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="69">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="69">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="F20" s="64">
         <f t="shared" si="1"/>
-        <v>1.6937541974479515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="70">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="70">
-        <v>0.35780000000000001</v>
-      </c>
-      <c r="F20" s="65">
+        <v>3.5521628498727735</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="112"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>3.5521628498727735</v>
-      </c>
-      <c r="H20" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="109">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="109">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="M20" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="130"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="70">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="70">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="F21" s="64">
         <f t="shared" si="1"/>
-        <v>1.5690121786197566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="71">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="71">
-        <v>0.33069999999999999</v>
-      </c>
-      <c r="F21" s="65">
+        <v>3.1755050505050502</v>
+      </c>
+      <c r="H21" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>3.1755050505050502</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0.1477</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0.35949999999999999</v>
-      </c>
-      <c r="M21" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="129"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="69">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="69">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="F22" s="64">
         <f t="shared" si="1"/>
-        <v>1.4339878131347326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="70">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="70">
-        <v>0.30520000000000003</v>
-      </c>
-      <c r="F22" s="65">
+        <v>2.6507177033492826</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>2.6507177033492826</v>
-      </c>
-      <c r="H22" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="109">
-        <v>0.14760000000000001</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="109">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="M22" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="130"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="69">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="69">
+        <v>0.28010000000000002</v>
+      </c>
+      <c r="F23" s="64">
         <f t="shared" si="1"/>
-        <v>1.2926829268292681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="70">
-        <v>8.7400000000000005E-2</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="70">
-        <v>0.28010000000000002</v>
-      </c>
-      <c r="F23" s="65">
+        <v>2.2048054919908466</v>
+      </c>
+      <c r="H23" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>2.2048054919908466</v>
-      </c>
-      <c r="H23" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="109">
-        <v>0.15079999999999999</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="109">
-        <v>0.31950000000000001</v>
-      </c>
-      <c r="M23" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="130"/>
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="69">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="69">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="F24" s="64">
         <f t="shared" si="1"/>
-        <v>1.1187002652519895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="70">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="70">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="F24" s="65">
+        <v>1.8975501113585744</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>1.8975501113585744</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="109">
-        <v>0.1512</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="109">
-        <v>0.30080000000000001</v>
-      </c>
-      <c r="M24" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="130"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="69">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="69">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="F25" s="64">
         <f t="shared" si="1"/>
-        <v>0.98941798941798953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="70">
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="70">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="F25" s="65">
+        <v>1.5127118644067794</v>
+      </c>
+      <c r="H25" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>1.5127118644067794</v>
-      </c>
-      <c r="H25" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="109">
-        <v>0.1464</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="114">
-        <v>0.28220000000000001</v>
-      </c>
-      <c r="M25" s="41">
-        <f t="shared" si="1"/>
-        <v>0.92759562841530052</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="130"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M26" s="5"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="127"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
@@ -4730,812 +4622,698 @@
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="127"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="112"/>
+      <c r="M28" s="127"/>
+    </row>
+    <row r="29" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="100">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="F30" s="64">
+        <f t="shared" ref="F30:F39" si="2">(E30-B30)/B30</f>
+        <v>-0.46039076376554167</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="J30" s="59">
+        <v>0.16</v>
+      </c>
+      <c r="K30" s="41">
+        <f>(J30-I30)/I30</f>
+        <v>15</v>
+      </c>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="37">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="F31" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.68714401952807158</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="28">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.4536</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.113</v>
+      </c>
+      <c r="F32" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.75088183421516752</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="J32" s="5">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="K32" s="41">
+        <f>(J32-I32)/I32</f>
+        <v>1.2095541401273884</v>
+      </c>
+      <c r="L32" s="130"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.4234</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="26">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="F33" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.76877657061880023</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="K33" s="41">
+        <f>(J33-I33)/I33</f>
+        <v>0.82445141065830707</v>
+      </c>
+      <c r="L33" s="130"/>
+      <c r="M33" s="41"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="26">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="F34" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.77103518612952582</v>
+      </c>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="37">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="37">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="F35" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.75940054495912812</v>
+      </c>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="26">
+        <v>9.06E-2</v>
+      </c>
+      <c r="F36" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.73516515638702129</v>
+      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="26">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="F37" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.70818732080280344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="26">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="F38" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.67604166666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="26">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="F39" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.63786008230452673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="125"/>
+    </row>
+    <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="89"/>
-      <c r="H28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" s="47" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="87"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="125"/>
+    </row>
+    <row r="43" spans="1:13" ht="40" x14ac:dyDescent="0.2">
+      <c r="A43" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B43" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="81" t="s">
+      <c r="C43" s="73"/>
+      <c r="D43" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E43" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="90" t="s">
+      <c r="F43" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="G29"/>
-      <c r="H29" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="83">
+      <c r="H43" s="127"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="125"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="81">
         <v>0.62450000000000006</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="83">
+      <c r="C44" s="78"/>
+      <c r="D44" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="81">
         <v>0.64039999999999997</v>
       </c>
-      <c r="F30" s="88">
-        <f t="shared" ref="F30:F33" si="2">(E30-B30)/B30</f>
+      <c r="F44" s="86">
+        <f t="shared" ref="F44:F47" si="3">(E44-B44)/B44</f>
         <v>2.546036829463557E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="85" t="s">
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="125"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B45" s="81">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="85" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E45" s="81">
         <v>0.45779999999999998</v>
       </c>
-      <c r="F31" s="88">
-        <f t="shared" si="2"/>
+      <c r="F45" s="86">
+        <f t="shared" si="3"/>
         <v>5.8328358208955216</v>
       </c>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="41"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
+      <c r="H45" s="137"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="125"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B46" s="84">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="84" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E46" s="81">
         <v>0.36159999999999998</v>
       </c>
-      <c r="F32" s="88">
-        <f t="shared" si="2"/>
+      <c r="F46" s="86">
+        <f t="shared" si="3"/>
         <v>79.355555555555554</v>
       </c>
-      <c r="H32" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="109">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="109">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="M32" s="41">
-        <f>(L32-I32)/I32</f>
-        <v>10.699680511182109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="87" t="s">
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="125"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="77">
+      <c r="B47" s="75">
         <v>1E-4</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="87" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="86">
+      <c r="E47" s="84">
         <v>0.104</v>
       </c>
-      <c r="F33" s="91">
-        <f t="shared" si="2"/>
+      <c r="F47" s="89">
+        <f t="shared" si="3"/>
         <v>1038.9999999999998</v>
       </c>
-      <c r="H33" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="109">
-        <v>2E-3</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="114">
-        <v>0.1295</v>
-      </c>
-      <c r="M33" s="41">
-        <f>(L33-I33)/I33</f>
-        <v>63.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:13" ht="40" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="104">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="26">
-        <v>0.30380000000000001</v>
-      </c>
-      <c r="F38" s="65">
-        <f t="shared" ref="F38:F47" si="3">(E38-B38)/B38</f>
-        <v>-0.46039076376554167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="37">
-        <v>0.49159999999999998</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="37">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="F39" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.68714401952807158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="26">
-        <v>0.4536</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="26">
-        <v>0.113</v>
-      </c>
-      <c r="F40" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.75088183421516752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="26">
-        <v>0.4234</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="26">
-        <v>9.7900000000000001E-2</v>
-      </c>
-      <c r="F41" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.76877657061880023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="26">
-        <v>0.39219999999999999</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="26">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="F42" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.77103518612952582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="37">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="37">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="F43" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.75940054495912812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="26">
-        <v>0.34210000000000002</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="26">
-        <v>9.06E-2</v>
-      </c>
-      <c r="F44" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.73516515638702129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="26">
-        <v>0.31390000000000001</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="26">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="F45" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.70818732080280344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="26">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="26">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="F46" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.67604166666666665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="26">
-        <v>0.26729999999999998</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="26">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="F47" s="65">
-        <f t="shared" si="3"/>
-        <v>-0.63786008230452673</v>
-      </c>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="125"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="F48" s="41"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="127"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="125"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="F49" s="41"/>
-    </row>
-    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-    </row>
-    <row r="51" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="96">
-        <v>0.80718999999999996</v>
-      </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="96">
-        <v>0.77954999999999997</v>
-      </c>
-      <c r="F52" s="93">
-        <f>(E52-B52)/B52</f>
-        <v>-3.424224779791623E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="96">
-        <v>0.71453999999999995</v>
-      </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="96">
-        <v>0.67127000000000003</v>
-      </c>
-      <c r="F53" s="93">
-        <f>(E53-B53)/B53</f>
-        <v>-6.0556441906681115E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="96">
-        <v>0.61629</v>
-      </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="96">
-        <v>0.57081000000000004</v>
-      </c>
-      <c r="F54" s="93">
-        <f>(E54-B54)/B54</f>
-        <v>-7.3796427006766238E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="96">
-        <v>0.53576000000000001</v>
-      </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="96">
-        <v>0.48848000000000003</v>
-      </c>
-      <c r="F55" s="93">
-        <f>(E55-B55)/B55</f>
-        <v>-8.824846946393905E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="112">
-        <v>0.47376000000000001</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="112">
-        <v>0.43098999999999998</v>
-      </c>
-      <c r="F56" s="93">
-        <f>(E56-B56)/B56</f>
-        <v>-9.0277777777777846E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="93"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="93"/>
-    </row>
-    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="111"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="94"/>
-    </row>
-    <row r="60" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="96">
-        <v>0.79530000000000001</v>
-      </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="96">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F61" s="93">
-        <f>(E61-B61)/B61</f>
-        <v>-7.9592606563560944E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="96">
-        <v>0.70189999999999997</v>
-      </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="96">
-        <v>0.626</v>
-      </c>
-      <c r="F62" s="93">
-        <f>(E62-B62)/B62</f>
-        <v>-0.10813506197464022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="96">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="96">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="F63" s="93">
-        <f>(E63-B63)/B63</f>
-        <v>-0.13238967527060785</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="96">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" s="96">
-        <v>0.443</v>
-      </c>
-      <c r="F64" s="93">
-        <f>(E64-B64)/B64</f>
-        <v>-0.13729308666017517</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="104">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="D65" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="104">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="F65" s="93">
-        <f>(E65-B65)/B65</f>
-        <v>-0.15956711950264799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="60"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="60"/>
-    </row>
-    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="94"/>
-    </row>
-    <row r="69" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A69" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="96">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="96">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F70" s="93">
-        <f>(E70-B70)/B70</f>
-        <v>3.7089871611982919E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="96">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="C71" s="94"/>
-      <c r="D71" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="96">
-        <v>0.65</v>
-      </c>
-      <c r="F71" s="93">
-        <f>(E71-B71)/B71</f>
-        <v>7.7519379844961309E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="96">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="96">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F72" s="93">
-        <f>(E72-B72)/B72</f>
-        <v>5.4446460980036138E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="96">
-        <v>0.499</v>
-      </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="96">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F73" s="93">
-        <f>(E73-B73)/B73</f>
-        <v>3.6072144288577183E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="104">
-        <v>0.441</v>
-      </c>
-      <c r="D74" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="104">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="F74" s="93">
-        <f>(E74-B74)/B74</f>
-        <v>0.11791383219954646</v>
-      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="125"/>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="125"/>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="115"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="106"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="93"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="91"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="93"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="91"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="93"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="91"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="93"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="91"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="91"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="93"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="91"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="93"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="91"/>
+    </row>
+    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="133"/>
+    </row>
+    <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="115"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="106"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="93"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="91"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="93"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="91"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="93"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="91"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="93"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="91"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="93"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="91"/>
+      <c r="H65" s="111"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="125"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="137"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="125"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="137"/>
+    </row>
+    <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="133"/>
+    </row>
+    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="115"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="106"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="93"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="91"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="93"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="91"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="93"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="91"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="93"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="91"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="93"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="91"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="125"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="127"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="125"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="127"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="125"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5547,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B838E109-CF6D-004A-85D1-C7667BDB836D}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="K49" sqref="H44:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5559,8 +5337,7 @@
     <col min="4" max="4" width="25.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
@@ -5569,13 +5346,9 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -5584,10 +5357,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -5598,32 +5368,28 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -5638,10 +5404,7 @@
       <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -5656,10 +5419,7 @@
       <c r="E6" s="8">
         <v>32</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -5674,10 +5434,7 @@
       <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -5692,10 +5449,7 @@
       <c r="E8" s="8">
         <v>128</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -5710,10 +5464,7 @@
       <c r="E9" s="8">
         <v>15</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -5728,10 +5479,7 @@
       <c r="E10" s="13">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -5746,10 +5494,7 @@
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -5764,16 +5509,6 @@
       <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -5805,10 +5540,6 @@
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="16"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
     </row>
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -5820,11 +5551,11 @@
       <c r="E16" s="21"/>
       <c r="F16" s="16"/>
       <c r="H16" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
@@ -5843,16 +5574,16 @@
       <c r="F17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="49" t="s">
+      <c r="H17" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="102" t="s">
+      <c r="J17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="98" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5874,16 +5605,16 @@
         <f t="shared" ref="F18:F27" si="0">(E18-B18)/B18</f>
         <v>-1.8711439263679651E-2</v>
       </c>
-      <c r="H18" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="97">
+      <c r="H18" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="95">
         <v>0.78559999999999997</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="95">
         <v>0.55669999999999997</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="91">
         <f>(J18-I18)/I18</f>
         <v>-0.29136965376782076</v>
       </c>
@@ -5906,16 +5637,16 @@
         <f t="shared" si="0"/>
         <v>2.1784345922276988E-2</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="97">
+      <c r="H19" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="95">
         <v>0.95220000000000005</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="60">
         <v>0.91779999999999995</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="91">
         <f t="shared" ref="K19:K27" si="1">(J19-I19)/I19</f>
         <v>-3.6126864104179895E-2</v>
       </c>
@@ -5938,16 +5669,16 @@
         <f t="shared" si="0"/>
         <v>8.8468578401464312E-2</v>
       </c>
-      <c r="H20" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="97">
+      <c r="H20" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="95">
         <v>0.46779999999999999</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="95">
         <v>0.81220000000000003</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="91">
         <f t="shared" si="1"/>
         <v>0.73621205643437371</v>
       </c>
@@ -5970,16 +5701,16 @@
         <f t="shared" si="0"/>
         <v>0.22154531946508171</v>
       </c>
-      <c r="H21" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="97">
+      <c r="H21" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="95">
         <v>0.70109999999999995</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="95">
         <v>0.69</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K21" s="91">
         <f t="shared" si="1"/>
         <v>-1.5832263585793753E-2</v>
       </c>
@@ -6002,16 +5733,16 @@
         <f t="shared" si="0"/>
         <v>0.50482249127847312</v>
       </c>
-      <c r="H22" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="127">
+      <c r="H22" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="112">
         <v>0.88780000000000003</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="108">
         <v>0.69</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K22" s="91">
         <f t="shared" si="1"/>
         <v>-0.22279792746113999</v>
       </c>
@@ -6034,16 +5765,16 @@
         <f t="shared" si="0"/>
         <v>0.99877563513927159</v>
       </c>
-      <c r="H23" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="126">
+      <c r="H23" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="60">
         <v>0.90439999999999998</v>
       </c>
-      <c r="J23" s="126">
+      <c r="J23" s="60">
         <v>0.37440000000000001</v>
       </c>
-      <c r="K23" s="93">
+      <c r="K23" s="91">
         <f t="shared" si="1"/>
         <v>-0.58602388323750554</v>
       </c>
@@ -6066,16 +5797,16 @@
         <f>(E24-B24)/B24</f>
         <v>1.6312670920692798</v>
       </c>
-      <c r="H24" s="74" t="s">
-        <v>65</v>
+      <c r="H24" s="72" t="s">
+        <v>56</v>
       </c>
       <c r="I24" s="22">
         <v>0.82220000000000004</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="60">
         <v>0.65780000000000005</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="91">
         <f t="shared" si="1"/>
         <v>-0.19995135003648745</v>
       </c>
@@ -6098,16 +5829,16 @@
         <f>(E25-B25)/B25</f>
         <v>2.1613114754098359</v>
       </c>
-      <c r="H25" s="74" t="s">
-        <v>66</v>
+      <c r="H25" s="72" t="s">
+        <v>57</v>
       </c>
       <c r="I25" s="22">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J25" s="126">
+      <c r="J25" s="60">
         <v>0.49559999999999998</v>
       </c>
-      <c r="K25" s="93">
+      <c r="K25" s="91">
         <f t="shared" si="1"/>
         <v>-0.50040322580645158</v>
       </c>
@@ -6130,16 +5861,16 @@
         <f>(E26-B26)/B26</f>
         <v>2.598086124401914</v>
       </c>
-      <c r="H26" s="74" t="s">
-        <v>67</v>
+      <c r="H26" s="72" t="s">
+        <v>58</v>
       </c>
       <c r="I26" s="22">
         <v>0.97439999999999993</v>
       </c>
-      <c r="J26" s="126">
+      <c r="J26" s="60">
         <v>0.68559999999999999</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="91">
         <f t="shared" si="1"/>
         <v>-0.29638752052545153</v>
       </c>
@@ -6162,16 +5893,16 @@
         <f t="shared" si="0"/>
         <v>2.2584009269988412</v>
       </c>
-      <c r="H27" s="74" t="s">
-        <v>68</v>
+      <c r="H27" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="I27" s="22">
         <v>0.9133</v>
       </c>
-      <c r="J27" s="126">
+      <c r="J27" s="60">
         <v>0.71889999999999998</v>
       </c>
-      <c r="K27" s="93">
+      <c r="K27" s="91">
         <f t="shared" si="1"/>
         <v>-0.21285448374028251</v>
       </c>
@@ -6183,10 +5914,6 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="16"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
@@ -6197,10 +5924,9 @@
       <c r="D30" s="22"/>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
+      <c r="H30" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
@@ -6219,6 +5945,15 @@
       <c r="F31" s="38" t="s">
         <v>37</v>
       </c>
+      <c r="I31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
@@ -6238,6 +5973,19 @@
         <f t="shared" ref="F32:F41" si="2">(E32-B32)/B32</f>
         <v>-1.4547010375441167E-2</v>
       </c>
+      <c r="H32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="59">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J32" s="59">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K32" s="41">
+        <f>(J32-I32)/I32</f>
+        <v>1.6944444444444446</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
@@ -6257,6 +6005,19 @@
         <f t="shared" si="2"/>
         <v>-3.2934460423765283E-4</v>
       </c>
+      <c r="H33" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K33" s="41">
+        <f>(J33-I33)/I33</f>
+        <v>46.333333333333329</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -6276,6 +6037,19 @@
         <f t="shared" si="2"/>
         <v>2.1221062187925611E-2</v>
       </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="5">
+        <v>6.94</v>
+      </c>
+      <c r="J34" s="5">
+        <v>13.242000000000001</v>
+      </c>
+      <c r="K34" s="41">
+        <f>(J34-I34)/I34</f>
+        <v>0.90806916426512974</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
@@ -6294,6 +6068,19 @@
       <c r="F35" s="41">
         <f t="shared" si="2"/>
         <v>4.0407589599437778E-2</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="K35" s="41">
+        <f>(J35-I35)/I35</f>
+        <v>38.256410256410255</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -6425,32 +6212,42 @@
       <c r="D44" s="22"/>
       <c r="E44" s="21"/>
       <c r="F44" s="16"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="19"/>
+      <c r="H44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="40" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="19"/>
+      <c r="I45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="119" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
@@ -6470,10 +6267,19 @@
         <f>(E46-B46)/B46</f>
         <v>0.33860092709650219</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="16"/>
+      <c r="H46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="59">
+        <v>3.211E-2</v>
+      </c>
+      <c r="J46" s="59">
+        <v>3.7190000000000001E-2</v>
+      </c>
+      <c r="K46" s="41">
+        <f>(J46-I46)/I46</f>
+        <v>0.15820616630333234</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
@@ -6493,10 +6299,19 @@
         <f t="shared" ref="F47:F50" si="3">(E47-B47)/B47</f>
         <v>0.80743243243243246</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="19"/>
+      <c r="H47" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="141">
+        <v>2.1910000000000001E-4</v>
+      </c>
+      <c r="J47" s="141">
+        <v>2.6479999999999999E-4</v>
+      </c>
+      <c r="K47" s="41">
+        <f t="shared" ref="K47:K50" si="4">(J47-I47)/I47</f>
+        <v>0.20858055682336818</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -6516,10 +6331,19 @@
         <f t="shared" si="3"/>
         <v>3.1190130624092882</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="19"/>
+      <c r="H48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="5">
+        <v>52488</v>
+      </c>
+      <c r="J48" s="5">
+        <v>51910</v>
+      </c>
+      <c r="K48" s="41">
+        <f>(I48-J48)/J48</f>
+        <v>1.1134656135619342E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
@@ -6539,10 +6363,16 @@
         <f t="shared" si="3"/>
         <v>2.6499032882011604</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="19"/>
+      <c r="H49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="5">
+        <v>8.76</v>
+      </c>
+      <c r="J49" s="142">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
@@ -6564,8 +6394,6 @@
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
@@ -6576,17 +6404,17 @@
       <c r="F51" s="41"/>
     </row>
     <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
     </row>
     <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="57"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="56"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
@@ -6615,7 +6443,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="21"/>
       <c r="F65" s="41"/>
-      <c r="H65" s="125"/>
+      <c r="H65" s="111"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
@@ -6663,11 +6491,11 @@
       <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="57"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="56"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
@@ -6741,5 +6569,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nemo/Desktop/thesis/softRmax-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0F427-A3DF-E14A-8C9E-26DE38A83986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B5FB77-AB75-E746-8CB6-20556CC669F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21560" yWindow="4820" windowWidth="23720" windowHeight="20220" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
+    <workbookView xWindow="25340" yWindow="1400" windowWidth="23720" windowHeight="20220" activeTab="3" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
   </bookViews>
   <sheets>
     <sheet name="mnist " sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="90">
   <si>
     <t xml:space="preserve">conservative_a: </t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>50 samples</t>
+  </si>
+  <si>
+    <t>500 samples</t>
+  </si>
+  <si>
+    <t>Robustness (MSE)</t>
+  </si>
+  <si>
+    <t>417 samples</t>
+  </si>
+  <si>
+    <t>432 samples</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -302,8 +317,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[Colour10]0.00%;[Red]0.00%"/>
-    <numFmt numFmtId="166" formatCode="[Colour10]0%;[Red]0%"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="[Colour10]0%;[Red]0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -556,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -730,7 +745,7 @@
     <xf numFmtId="10" fontId="26" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,42 +806,24 @@
     <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,11 +831,25 @@
     </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A11AE0-B146-4F40-BD5E-14A3A0645060}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A4" zoomScale="107" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1765,23 @@
       <c r="L27" s="17"/>
       <c r="M27" s="41"/>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H28" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="60">
+        <f>AVERAGE(I18:I27)</f>
+        <v>0.79966999999999988</v>
+      </c>
+      <c r="J28" s="60">
+        <f>AVERAGE(J18:J27)</f>
+        <v>0.78066000000000002</v>
+      </c>
+      <c r="K28" s="91">
+        <f>(J28-I28)/I28</f>
+        <v>-2.3772306076256286E-2</v>
+      </c>
+    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
@@ -1773,6 +1801,9 @@
       <c r="F30" s="16"/>
       <c r="H30" s="11" t="s">
         <v>61</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.25">
@@ -2143,18 +2174,18 @@
         <v>23</v>
       </c>
       <c r="B46" s="37">
-        <v>0.90090000000000003</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="37">
-        <v>0.99165999999999999</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="F46" s="41">
         <f>(E46-B46)/B46</f>
-        <v>0.10074370074370069</v>
+        <v>-1.6350839198700597E-2</v>
       </c>
       <c r="G46" s="92"/>
       <c r="H46" s="59" t="s">
@@ -2178,31 +2209,31 @@
         <v>25</v>
       </c>
       <c r="B47" s="37">
-        <v>0.77039999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="26">
-        <v>0.96516000000000002</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="F47" s="41">
         <f>(E47-B47)/B47</f>
-        <v>0.2528037383177571</v>
+        <v>-3.9328537170263717E-2</v>
       </c>
       <c r="G47" s="92"/>
       <c r="H47" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="141">
+        <v>86</v>
+      </c>
+      <c r="I47" s="129">
         <v>4.3699999999999998E-3</v>
       </c>
-      <c r="J47" s="141">
+      <c r="J47" s="129">
         <v>1.252E-2</v>
       </c>
       <c r="K47" s="41">
-        <f t="shared" ref="K47" si="3">(J47-I47)/I47</f>
+        <f>(J47-I47)/I47</f>
         <v>1.8649885583524031</v>
       </c>
       <c r="L47" s="21"/>
@@ -2213,18 +2244,18 @@
         <v>27</v>
       </c>
       <c r="B48" s="37">
-        <v>0.58679999999999999</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="37">
-        <v>0.90922000000000003</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="F48" s="41">
         <f>(E48-B48)/B48</f>
-        <v>0.54945466939331977</v>
+        <v>-6.6000562904587751E-2</v>
       </c>
       <c r="G48" s="92"/>
       <c r="H48" s="5" t="s">
@@ -2248,24 +2279,24 @@
         <v>29</v>
       </c>
       <c r="B49" s="37">
-        <v>0.39739999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="26">
-        <v>0.78263000000000005</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="F49" s="41">
         <f>(E49-B49)/B49</f>
-        <v>0.96937594363361879</v>
+        <v>-3.7240075614366826E-2</v>
       </c>
       <c r="G49" s="92"/>
       <c r="H49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="143">
+      <c r="I49" s="131">
         <v>4.601</v>
       </c>
       <c r="J49" s="5">
@@ -2280,18 +2311,18 @@
         <v>31</v>
       </c>
       <c r="B50" s="26">
-        <v>0.21920000000000001</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="21">
-        <v>0.59421000000000002</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="F50" s="41">
         <f>(E50-B50)/B50</f>
-        <v>1.7108120437956205</v>
+        <v>7.1590265987549487E-2</v>
       </c>
       <c r="G50" s="92"/>
       <c r="K50" s="19"/>
@@ -2307,70 +2338,50 @@
       <c r="G52" s="92"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G53" s="133"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="133"/>
+      <c r="G53" s="92"/>
+      <c r="L53" s="92"/>
       <c r="M53" s="92"/>
     </row>
     <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="G54" s="134"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="127"/>
+      <c r="G54" s="97"/>
       <c r="L54" s="105"/>
       <c r="M54" s="106"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G55" s="133"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="144"/>
+      <c r="G55" s="92"/>
+      <c r="L55" s="107"/>
     </row>
     <row r="56" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="G56" s="133"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="144"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="11"/>
+      <c r="L56" s="107"/>
     </row>
     <row r="57" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="G57" s="133"/>
-      <c r="H57" s="127"/>
+      <c r="G57" s="92"/>
       <c r="I57" s="54"/>
       <c r="J57" s="54"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="144"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="107"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G58" s="133"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="137"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="144"/>
+      <c r="L58" s="107"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G59" s="133"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="41"/>
-      <c r="L59" s="146"/>
+      <c r="L59" s="108"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G60" s="133"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
+      <c r="G60" s="92"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="127"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
@@ -2379,12 +2390,8 @@
       <c r="D61" s="93"/>
       <c r="E61" s="107"/>
       <c r="F61" s="91"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
+      <c r="G61" s="92"/>
       <c r="K61" s="41"/>
-      <c r="L61" s="127"/>
     </row>
     <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
@@ -2393,12 +2400,7 @@
       <c r="D62" s="92"/>
       <c r="E62" s="92"/>
       <c r="F62" s="92"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
-      <c r="K62" s="127"/>
-      <c r="L62" s="127"/>
+      <c r="G62" s="92"/>
     </row>
     <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="115"/>
@@ -2647,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B086D-4A69-674E-A1F5-47C7ABBEF27F}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3663,10 +3665,10 @@
       <c r="H47" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="141">
+      <c r="I47" s="129">
         <v>6.5199999999999998E-3</v>
       </c>
-      <c r="J47" s="141">
+      <c r="J47" s="129">
         <v>3.3700000000000002E-3</v>
       </c>
       <c r="K47" s="41">
@@ -3688,11 +3690,11 @@
         <v>27</v>
       </c>
       <c r="E48" s="37">
-        <v>0.90922000000000003</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="F48" s="41">
         <f>(E48-B48)/B48</f>
-        <v>-4.6819306411707895E-2</v>
+        <v>-3.6461609426762194E-2</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>80</v>
@@ -3722,19 +3724,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="26">
-        <v>0.78263000000000005</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="F49" s="41">
         <f>(E49-B49)/B49</f>
-        <v>-0.11976020964785</v>
+        <v>-8.6614704592232583E-2</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="143">
+      <c r="I49" s="131">
         <v>4.601</v>
       </c>
-      <c r="J49" s="143">
+      <c r="J49" s="131">
         <v>4.8440000000000003</v>
       </c>
       <c r="K49" s="41"/>
@@ -3753,11 +3755,11 @@
         <v>31</v>
       </c>
       <c r="E50" s="37">
-        <v>0.59421000000000002</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="F50" s="41">
         <f>(E50-B50)/B50</f>
-        <v>-0.1877938764352105</v>
+        <v>-7.9825041006014216E-2</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
@@ -4062,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7FE25-5858-4B4A-8ADD-8E8DDF528A8E}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="K26" sqref="H26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4076,7 +4078,7 @@
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
@@ -4100,8 +4102,8 @@
       <c r="F2" s="10"/>
       <c r="G2" s="5"/>
       <c r="H2" s="102"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -4110,8 +4112,8 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="11"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="122"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -4134,8 +4136,8 @@
       <c r="I4" s="56"/>
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="124"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="121"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4151,8 +4153,8 @@
         <v>10</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4168,8 +4170,8 @@
         <v>256</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4185,8 +4187,8 @@
         <v>15</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="127"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4202,8 +4204,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4218,9 +4220,9 @@
       <c r="E9" s="15">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="I9" s="138"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="127"/>
+      <c r="I9" s="126"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4235,14 +4237,13 @@
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="139"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" s="8"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="127"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
@@ -4263,7 +4264,7 @@
         <v>-6.8019233024510699E-3</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="L12" s="129"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -4273,7 +4274,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="L13" s="112"/>
-      <c r="M13" s="127"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -4341,11 +4342,15 @@
       <c r="H16" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="91" t="e">
-        <f t="shared" ref="K16:K25" si="0">(J16-I16)/I16</f>
-        <v>#DIV/0!</v>
+      <c r="I16" s="95">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="J16" s="95">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="K16" s="91">
+        <f>(J16-I16)/I16</f>
+        <v>-0.12265331664580727</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -4363,17 +4368,21 @@
         <v>0.45929999999999999</v>
       </c>
       <c r="F17" s="64">
-        <f t="shared" ref="F17:F25" si="1">(E17-B17)/B17</f>
+        <f t="shared" ref="F17:F25" si="0">(E17-B17)/B17</f>
         <v>2.7463295269168024</v>
       </c>
       <c r="H17" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="95"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I17" s="95">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="J17" s="60">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="K17" s="91">
+        <f>(J17-I17)/I17</f>
+        <v>-2.6054002842255931E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -4391,17 +4400,21 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="F18" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.609170305676856</v>
       </c>
       <c r="H18" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I18" s="95">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="J18" s="95">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="K18" s="91">
+        <f>(J18-I18)/I18</f>
+        <v>-9.4322753687974992E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -4419,17 +4432,21 @@
         <v>0.3876</v>
       </c>
       <c r="F19" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8693467336683414</v>
       </c>
       <c r="H19" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I19" s="95">
+        <v>0.48</v>
+      </c>
+      <c r="J19" s="95">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="K19" s="91">
+        <f t="shared" ref="K19:K24" si="1">(J19-I19)/I19</f>
+        <v>-6.8749999999999367E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -4447,19 +4464,23 @@
         <v>0.35780000000000001</v>
       </c>
       <c r="F20" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5521628498727735</v>
       </c>
       <c r="H20" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="130"/>
+      <c r="I20" s="112">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="J20" s="108">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="K20" s="91">
+        <f t="shared" si="1"/>
+        <v>0.17854789827381731</v>
+      </c>
+      <c r="L20" s="123"/>
       <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -4477,19 +4498,23 @@
         <v>0.33069999999999999</v>
       </c>
       <c r="F21" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1755050505050502</v>
       </c>
       <c r="H21" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="129"/>
+      <c r="I21" s="60">
+        <v>0.6633</v>
+      </c>
+      <c r="J21" s="60">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="K21" s="91">
+        <f t="shared" si="1"/>
+        <v>-8.2918739635156787E-3</v>
+      </c>
+      <c r="L21" s="122"/>
       <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -4507,19 +4532,23 @@
         <v>0.30520000000000003</v>
       </c>
       <c r="F22" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6507177033492826</v>
       </c>
       <c r="H22" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="130"/>
+      <c r="I22" s="22">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0.8911</v>
+      </c>
+      <c r="K22" s="91">
+        <f t="shared" si="1"/>
+        <v>-7.4626865671642223E-3</v>
+      </c>
+      <c r="L22" s="123"/>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -4537,19 +4566,23 @@
         <v>0.28010000000000002</v>
       </c>
       <c r="F23" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2048054919908466</v>
       </c>
       <c r="H23" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="130"/>
+      <c r="I23" s="22">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="J23" s="60">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="K23" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.27001067235859127</v>
+      </c>
+      <c r="L23" s="123"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -4567,19 +4600,23 @@
         <v>0.26019999999999999</v>
       </c>
       <c r="F24" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8975501113585744</v>
       </c>
       <c r="H24" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="130"/>
+      <c r="I24" s="22">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="J24" s="60">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="K24" s="91">
+        <f t="shared" si="1"/>
+        <v>1.0511397189087066E-2</v>
+      </c>
+      <c r="L24" s="123"/>
       <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -4597,24 +4634,42 @@
         <v>0.23719999999999999</v>
       </c>
       <c r="F25" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5127118644067794</v>
       </c>
       <c r="H25" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="130"/>
+      <c r="I25" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="60">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="K25" s="91">
+        <f>(J25-I25)/I25</f>
+        <v>-4.077777777777785E-2</v>
+      </c>
+      <c r="L25" s="123"/>
       <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L26" s="125"/>
-      <c r="M26" s="127"/>
+      <c r="H26" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="60">
+        <f>AVERAGE(I16:I25)</f>
+        <v>0.77844000000000002</v>
+      </c>
+      <c r="J26" s="60">
+        <f>AVERAGE(J16:J25)</f>
+        <v>0.74755999999999989</v>
+      </c>
+      <c r="K26" s="91">
+        <f>(J26-I26)/I26</f>
+        <v>-3.9669081753250256E-2</v>
+      </c>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
@@ -4623,7 +4678,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="L27" s="112"/>
-      <c r="M27" s="127"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
@@ -4637,8 +4692,14 @@
       <c r="H28" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="I28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="137" t="s">
+        <v>87</v>
+      </c>
       <c r="L28" s="112"/>
-      <c r="M28" s="127"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
@@ -4690,20 +4751,18 @@
         <v>-0.46039076376554167</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="59">
-        <v>0.01</v>
+        <v>81</v>
+      </c>
+      <c r="I30" s="132">
+        <v>1.5879999999999998E-2</v>
       </c>
       <c r="J30" s="59">
-        <v>0.16</v>
+        <v>0.26074999999999998</v>
       </c>
       <c r="K30" s="41">
         <f>(J30-I30)/I30</f>
-        <v>15</v>
-      </c>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
+        <v>15.420025188916878</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
@@ -4724,16 +4783,19 @@
         <v>-0.68714401952807158</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="28">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="130"/>
+        <v>86</v>
+      </c>
+      <c r="I31" s="133">
+        <v>5.0250000000000002E-4</v>
+      </c>
+      <c r="J31" s="129">
+        <v>0.28505540000000001</v>
+      </c>
+      <c r="K31" s="41">
+        <f t="shared" ref="K31:K34" si="3">(J31-I31)/I31</f>
+        <v>566.27442786069651</v>
+      </c>
+      <c r="L31" s="123"/>
       <c r="M31" s="41"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4755,19 +4817,16 @@
         <v>-0.75088183421516752</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3.14</v>
-      </c>
-      <c r="J32" s="5">
-        <v>6.9379999999999997</v>
-      </c>
-      <c r="K32" s="41">
-        <f>(J32-I32)/I32</f>
-        <v>1.2095541401273884</v>
-      </c>
-      <c r="L32" s="130"/>
+        <v>62</v>
+      </c>
+      <c r="I32" s="136">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="123"/>
       <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4789,19 +4848,19 @@
         <v>-0.76877657061880023</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.58199999999999996</v>
+        <v>64</v>
+      </c>
+      <c r="I33" s="134">
+        <v>3.19</v>
+      </c>
+      <c r="J33" s="130">
+        <v>3.4359999999999999</v>
       </c>
       <c r="K33" s="41">
-        <f>(J33-I33)/I33</f>
-        <v>0.82445141065830707</v>
-      </c>
-      <c r="L33" s="130"/>
+        <f t="shared" si="3"/>
+        <v>7.711598746081505E-2</v>
+      </c>
+      <c r="L33" s="123"/>
       <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4822,8 +4881,21 @@
         <f t="shared" si="2"/>
         <v>-0.77103518612952582</v>
       </c>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
+      <c r="H34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="135">
+        <v>0.254</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K34" s="41">
+        <f t="shared" si="3"/>
+        <v>0.12204724409448808</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
@@ -4843,8 +4915,6 @@
         <f t="shared" si="2"/>
         <v>-0.75940054495912812</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
@@ -4865,8 +4935,6 @@
         <v>-0.73516515638702129</v>
       </c>
       <c r="K36" s="41"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
@@ -4924,13 +4992,6 @@
         <f t="shared" si="2"/>
         <v>-0.63786008230452673</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="125"/>
     </row>
     <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
@@ -4941,11 +5002,7 @@
       <c r="D42" s="77"/>
       <c r="E42" s="78"/>
       <c r="F42" s="87"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="125"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
@@ -4964,11 +5021,9 @@
       <c r="F43" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="127"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="125"/>
+      <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="72" t="s">
@@ -4985,14 +5040,13 @@
         <v>0.64039999999999997</v>
       </c>
       <c r="F44" s="86">
-        <f t="shared" ref="F44:F47" si="3">(E44-B44)/B44</f>
+        <f t="shared" ref="F44:F47" si="4">(E44-B44)/B44</f>
         <v>2.546036829463557E-2</v>
       </c>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="125"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="83" t="s">
@@ -5009,14 +5063,13 @@
         <v>0.45779999999999998</v>
       </c>
       <c r="F45" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8328358208955216</v>
       </c>
-      <c r="H45" s="137"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="125"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="82" t="s">
@@ -5033,14 +5086,10 @@
         <v>0.36159999999999998</v>
       </c>
       <c r="F46" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.355555555555554</v>
       </c>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="125"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="85" t="s">
@@ -5057,25 +5106,20 @@
         <v>0.104</v>
       </c>
       <c r="F47" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1038.9999999999998</v>
       </c>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="147"/>
+      <c r="J47" s="130"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="125"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="F48" s="41"/>
-      <c r="H48" s="127"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
       <c r="K48" s="19"/>
-      <c r="L48" s="125"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="F49" s="41"/>
@@ -5083,170 +5127,161 @@
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
       <c r="K49" s="19"/>
-      <c r="L49" s="125"/>
-    </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="125"/>
-    </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="115"/>
       <c r="B51" s="105"/>
-      <c r="C51" s="134"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="105"/>
       <c r="E51" s="105"/>
       <c r="F51" s="106"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="110"/>
-      <c r="C52" s="133"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="93"/>
       <c r="E52" s="110"/>
       <c r="F52" s="91"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="110"/>
-      <c r="C53" s="133"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="93"/>
       <c r="E53" s="110"/>
       <c r="F53" s="91"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="110"/>
-      <c r="C54" s="133"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="93"/>
       <c r="E54" s="110"/>
       <c r="F54" s="91"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="110"/>
-      <c r="C55" s="133"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="93"/>
       <c r="E55" s="110"/>
       <c r="F55" s="91"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="29"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="131"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="29"/>
-      <c r="E56" s="135"/>
+      <c r="E56" s="125"/>
       <c r="F56" s="91"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="110"/>
-      <c r="C57" s="133"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="93"/>
       <c r="E57" s="110"/>
       <c r="F57" s="91"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="110"/>
-      <c r="C58" s="133"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="93"/>
       <c r="E58" s="110"/>
       <c r="F58" s="91"/>
     </row>
-    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="133"/>
-    </row>
-    <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B59" s="124"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="92"/>
+    </row>
+    <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="115"/>
       <c r="B60" s="105"/>
-      <c r="C60" s="134"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="105"/>
       <c r="E60" s="105"/>
       <c r="F60" s="106"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="110"/>
-      <c r="C61" s="133"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="93"/>
       <c r="E61" s="110"/>
       <c r="F61" s="91"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="110"/>
-      <c r="C62" s="133"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="93"/>
       <c r="E62" s="110"/>
       <c r="F62" s="91"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="110"/>
-      <c r="C63" s="133"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="93"/>
       <c r="E63" s="110"/>
       <c r="F63" s="91"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="93"/>
       <c r="B64" s="110"/>
-      <c r="C64" s="133"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="110"/>
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="125"/>
+      <c r="B65" s="100"/>
       <c r="D65" s="93"/>
-      <c r="E65" s="136"/>
+      <c r="E65" s="100"/>
       <c r="F65" s="91"/>
       <c r="H65" s="111"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="125"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="137"/>
+      <c r="B66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="125"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="137"/>
+      <c r="B67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="133"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="92"/>
     </row>
     <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="115"/>
       <c r="B69" s="105"/>
-      <c r="C69" s="134"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="105"/>
       <c r="E69" s="105"/>
       <c r="F69" s="106"/>
@@ -5254,7 +5289,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="110"/>
-      <c r="C70" s="133"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="93"/>
       <c r="E70" s="110"/>
       <c r="F70" s="91"/>
@@ -5262,7 +5297,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="110"/>
-      <c r="C71" s="133"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="93"/>
       <c r="E71" s="110"/>
       <c r="F71" s="91"/>
@@ -5270,7 +5305,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
       <c r="B72" s="110"/>
-      <c r="C72" s="133"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="93"/>
       <c r="E72" s="110"/>
       <c r="F72" s="91"/>
@@ -5278,42 +5313,17 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="110"/>
-      <c r="C73" s="133"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="93"/>
       <c r="E73" s="110"/>
       <c r="F73" s="91"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="93"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="125"/>
+      <c r="B74" s="100"/>
       <c r="D74" s="93"/>
-      <c r="E74" s="136"/>
+      <c r="E74" s="100"/>
       <c r="F74" s="91"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="125"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="127"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="125"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="127"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="125"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5325,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B838E109-CF6D-004A-85D1-C7667BDB836D}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K49" sqref="H44:K49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5907,6 +5917,23 @@
         <v>-0.21285448374028251</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="60">
+        <f>AVERAGE(I18:I27)</f>
+        <v>0.84008000000000005</v>
+      </c>
+      <c r="J28" s="60">
+        <f>AVERAGE(J18:J27)</f>
+        <v>0.65989999999999982</v>
+      </c>
+      <c r="K28" s="91">
+        <f>(J28-I28)/I28</f>
+        <v>-0.21447957337396464</v>
+      </c>
+    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
@@ -6302,14 +6329,14 @@
       <c r="H47" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="141">
+      <c r="I47" s="129">
         <v>2.1910000000000001E-4</v>
       </c>
-      <c r="J47" s="141">
+      <c r="J47" s="129">
         <v>2.6479999999999999E-4</v>
       </c>
       <c r="K47" s="41">
-        <f t="shared" ref="K47:K50" si="4">(J47-I47)/I47</f>
+        <f t="shared" ref="K47" si="4">(J47-I47)/I47</f>
         <v>0.20858055682336818</v>
       </c>
     </row>
@@ -6369,7 +6396,7 @@
       <c r="I49" s="5">
         <v>8.76</v>
       </c>
-      <c r="J49" s="142">
+      <c r="J49" s="130">
         <v>9.1199999999999992</v>
       </c>
       <c r="K49" s="41"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nemo/Desktop/thesis/softRmax-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radbouduniversiteit-my.sharepoint.com/personal/nemo_ingendaa_ru_nl/Documents/backup/thesis/softRmax-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290A3C3-AC7A-B342-8452-D19C98A4FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{4290A3C3-AC7A-B342-8452-D19C98A4FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D66A1B2D-339A-CF43-A956-7AFECC792370}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2700" windowWidth="25780" windowHeight="19420" activeTab="1" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
+    <workbookView xWindow="1560" yWindow="6620" windowWidth="25780" windowHeight="19420" activeTab="3" xr2:uid="{7CDF230F-D82A-4F4E-AAA9-9338F0541A49}"/>
   </bookViews>
   <sheets>
     <sheet name="mnist - 3&amp;7" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="112">
   <si>
     <t xml:space="preserve">conservative_a: </t>
   </si>
@@ -221,9 +221,6 @@
     <t>Ankle boot</t>
   </si>
   <si>
-    <t>Average attack (eps = 0.3)</t>
-  </si>
-  <si>
     <t>Deepfool</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t>Targeted attacks (eps=0.3)</t>
+  </si>
+  <si>
+    <t>Targeted FGSM attack (white) (eps = 0,3)</t>
+  </si>
+  <si>
+    <t>Targeted FGSM attack (black) (eps = 0,3)</t>
   </si>
 </sst>
 </file>
@@ -951,10 +954,10 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3380,19 +3383,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85270000000000001</c:v>
+                  <c:v>0.88219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65839999999999999</c:v>
+                  <c:v>0.70120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2402</c:v>
+                  <c:v>0.33050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1226</c:v>
+                  <c:v>0.2457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9200000000000007E-2</c:v>
+                  <c:v>0.20180000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,19 +3465,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.84689999999999999</c:v>
+                  <c:v>0.88680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6663</c:v>
+                  <c:v>0.69630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51749999999999996</c:v>
+                  <c:v>0.6492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45929999999999999</c:v>
+                  <c:v>0.59919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33069999999999999</c:v>
+                  <c:v>0.47199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,19 +3556,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85270000000000001</c:v>
+                  <c:v>0.88219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62450000000000006</c:v>
+                  <c:v>0.67930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.1573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>6.3200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-4</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,19 +3647,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.84689999999999999</c:v>
+                  <c:v>0.88680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64039999999999997</c:v>
+                  <c:v>0.73560000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45779999999999998</c:v>
+                  <c:v>0.60360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36159999999999998</c:v>
+                  <c:v>0.50970000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.104</c:v>
+                  <c:v>0.21759999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8357,7 +8360,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="55"/>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -8619,13 +8622,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="40"/>
       <c r="H16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="21"/>
     </row>
@@ -8654,7 +8657,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="53"/>
       <c r="M17" s="5"/>
@@ -8685,7 +8688,7 @@
         <v>3.9571858669056308E-3</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="120">
         <v>0.16284000000000001</v>
@@ -8718,7 +8721,7 @@
         <v>4.93633139909726E-4</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="124">
         <v>3.1308599999999999E-2</v>
@@ -8751,7 +8754,7 @@
         <v>-4.960869873345858E-4</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="131">
         <v>14.021000000000001</v>
@@ -8784,7 +8787,7 @@
         <v>2.0094454134663721E-3</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="28">
         <v>1.5200000000000001E-3</v>
@@ -8814,7 +8817,7 @@
         <v>3.5376142247159018E-3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="5">
         <v>7.9000000000000001E-2</v>
@@ -8947,13 +8950,13 @@
       <c r="E30" s="21"/>
       <c r="F30" s="40"/>
       <c r="H30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L30" s="21"/>
     </row>
@@ -8982,7 +8985,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="53"/>
       <c r="M31" s="5"/>
@@ -9013,7 +9016,7 @@
         <v>-9.87266279819452E-4</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="120">
         <v>0.23851</v>
@@ -9046,7 +9049,7 @@
         <v>-1.6006361764166074E-2</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="120">
         <v>6.2950000000000002E-3</v>
@@ -9080,7 +9083,7 @@
         <v>-3.6461609426762194E-2</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="5">
         <v>45005</v>
@@ -9111,7 +9114,7 @@
         <v>-8.6614704592232583E-2</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="122">
         <v>4.3310000000000004</v>
@@ -9167,7 +9170,7 @@
     </row>
     <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -9228,7 +9231,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="59">
         <f>AVERAGE(B41:B42)</f>
@@ -9265,7 +9268,7 @@
     </row>
     <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="90"/>
       <c r="C46" s="90"/>
@@ -9337,7 +9340,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="59">
         <f>AVERAGE(B48:B49)</f>
@@ -9364,7 +9367,7 @@
     </row>
     <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
@@ -9423,7 +9426,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="59">
         <f>AVERAGE(B55:B56)</f>
@@ -9656,7 +9659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A11AE0-B146-4F40-BD5E-14A3A0645060}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="117" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="117" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -9735,7 +9738,7 @@
       <c r="I5" s="8"/>
       <c r="L5" s="8"/>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -9969,13 +9972,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="16"/>
       <c r="H16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
@@ -10003,7 +10006,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="55"/>
     </row>
@@ -10026,7 +10029,7 @@
         <v>-1.6348217022581443E-3</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="120">
         <v>0.15284</v>
@@ -10059,7 +10062,7 @@
         <v>-5.907960199005015E-3</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="124">
         <v>2.54086E-2</v>
@@ -10092,7 +10095,7 @@
         <v>-6.3485345466088297E-3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="24">
         <v>1.2189999999999999E-2</v>
@@ -10100,7 +10103,7 @@
       <c r="J20" s="24">
         <v>1.6129999999999999E-2</v>
       </c>
-      <c r="K20" s="150"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -10122,7 +10125,7 @@
         <v>5.9003496503496067E-3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="121">
         <v>13.092000000000001</v>
@@ -10155,7 +10158,7 @@
         <v>3.2379862700228822E-2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="5">
         <v>0.10199999999999999</v>
@@ -10288,13 +10291,13 @@
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
       <c r="H30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="40" x14ac:dyDescent="0.25">
@@ -10321,7 +10324,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="55"/>
     </row>
@@ -10344,7 +10347,7 @@
         <v>-0.35696476964769652</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="120">
         <v>0.13216</v>
@@ -10377,7 +10380,7 @@
         <v>-0.65005583472920159</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="120">
         <v>1.8753000000000001E-3</v>
@@ -10410,7 +10413,7 @@
         <v>-0.72104180945853324</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="5">
         <v>47647</v>
@@ -10443,7 +10446,7 @@
         <v>-0.56386958845537138</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="122">
         <v>3.44</v>
@@ -10482,7 +10485,7 @@
     </row>
     <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -10687,7 +10690,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="59">
         <f>AVERAGE(B41:B50)</f>
@@ -10712,7 +10715,7 @@
     </row>
     <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
@@ -10913,7 +10916,7 @@
     </row>
     <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="59">
         <f>AVERAGE(B55:B64)</f>
@@ -10938,7 +10941,7 @@
     </row>
     <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="90"/>
       <c r="C67" s="90"/>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="79" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="59">
         <f>AVERAGE(B69:B78)</f>
@@ -11322,7 +11325,7 @@
       <c r="I5" s="8"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -11653,13 +11656,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="16"/>
       <c r="H16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -11695,7 +11698,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -11726,7 +11729,7 @@
         <v>0.26750841750841758</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="120">
         <v>4.4069999999999998E-2</v>
@@ -11767,7 +11770,7 @@
         <v>0.64260419504222288</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="124">
         <v>3.0442999999999998E-3</v>
@@ -11808,7 +11811,7 @@
         <v>1.0015766653527791</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="24">
         <v>1.66E-3</v>
@@ -11845,7 +11848,7 @@
         <v>1.272361809045226</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="131">
         <v>7.0880000000000001</v>
@@ -11886,7 +11889,7 @@
         <v>1.4117308798159862</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="5">
         <v>6.8000000000000005E-2</v>
@@ -12086,13 +12089,13 @@
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
       <c r="H30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -12128,7 +12131,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -12159,7 +12162,7 @@
         <v>0.33860092709650219</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="120">
         <v>4.2569999999999997E-2</v>
@@ -12200,7 +12203,7 @@
         <v>0.80743243243243246</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="120">
         <v>4.127E-4</v>
@@ -12232,7 +12235,7 @@
         <v>3.1190130624092882</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="5">
         <v>48735</v>
@@ -12264,7 +12267,7 @@
         <v>2.6499032882011604</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="5">
         <v>8.76</v>
@@ -12311,7 +12314,7 @@
     </row>
     <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -12489,7 +12492,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="59">
         <f>AVERAGE(B41:B50)</f>
@@ -12506,7 +12509,7 @@
     </row>
     <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
@@ -12686,7 +12689,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="59">
         <f>AVERAGE(B55:B64)</f>
@@ -12709,7 +12712,7 @@
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="90"/>
       <c r="C67" s="90"/>
@@ -12899,7 +12902,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="59">
         <f>AVERAGE(B69:B78)</f>
@@ -12969,8 +12972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7FE25-5858-4B4A-8ADD-8E8DDF528A8E}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12990,7 +12993,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="L1" s="69"/>
@@ -13064,7 +13067,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -13092,19 +13095,19 @@
       </c>
       <c r="O6" s="105">
         <f>B12</f>
-        <v>0.85270000000000001</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="P6" s="105">
         <f>E12</f>
-        <v>0.84689999999999999</v>
+        <v>0.88680000000000003</v>
       </c>
       <c r="Q6" s="105">
         <f>B12</f>
-        <v>0.85270000000000001</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="R6" s="147">
         <f>E12</f>
-        <v>0.84689999999999999</v>
+        <v>0.88680000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -13128,19 +13131,19 @@
       </c>
       <c r="O7" s="147">
         <f>B16</f>
-        <v>0.65839999999999999</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="P7" s="147">
         <f>E16</f>
-        <v>0.6663</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="Q7" s="79">
         <f>B30</f>
-        <v>0.62450000000000006</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="R7" s="79">
         <f>E30</f>
-        <v>0.64039999999999997</v>
+        <v>0.73560000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -13164,19 +13167,19 @@
       </c>
       <c r="O8" s="147">
         <f t="shared" ref="O8" si="0">B17</f>
-        <v>0.2402</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="P8" s="147">
         <f t="shared" ref="P8:P9" si="1">E17</f>
-        <v>0.51749999999999996</v>
+        <v>0.6492</v>
       </c>
       <c r="Q8" s="79">
         <f t="shared" ref="Q8:Q10" si="2">B31</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.1573</v>
       </c>
       <c r="R8" s="79">
         <f t="shared" ref="R8:R10" si="3">E31</f>
-        <v>0.45779999999999998</v>
+        <v>0.60360000000000003</v>
       </c>
       <c r="S8" s="5"/>
     </row>
@@ -13201,19 +13204,19 @@
       </c>
       <c r="O9" s="147">
         <f>B18</f>
-        <v>0.1226</v>
+        <v>0.2457</v>
       </c>
       <c r="P9" s="147">
         <f t="shared" si="1"/>
-        <v>0.45929999999999999</v>
+        <v>0.59919999999999995</v>
       </c>
       <c r="Q9" s="79">
         <f t="shared" si="2"/>
-        <v>4.4999999999999997E-3</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="R9" s="79">
         <f t="shared" si="3"/>
-        <v>0.36159999999999998</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="S9" s="37"/>
     </row>
@@ -13238,19 +13241,19 @@
       </c>
       <c r="O10" s="67">
         <f>B22</f>
-        <v>7.9200000000000007E-2</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="P10" s="67">
         <f>E22</f>
-        <v>0.33069999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="Q10" s="79">
         <f t="shared" si="2"/>
-        <v>1E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R10" s="79">
         <f t="shared" si="3"/>
-        <v>0.104</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="S10" s="26"/>
     </row>
@@ -13269,18 +13272,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="114">
-        <v>0.85270000000000001</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="32">
-        <v>0.84689999999999999</v>
+        <v>0.88680000000000003</v>
       </c>
       <c r="F12" s="41">
         <f>(E12-B12)/B12</f>
-        <v>-6.8019233024510699E-3</v>
+        <v>5.214237134436691E-3</v>
       </c>
       <c r="G12" s="3"/>
       <c r="L12" s="114"/>
@@ -13314,13 +13317,13 @@
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="H14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -13353,7 +13356,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="26"/>
@@ -13366,20 +13369,20 @@
         <v>39</v>
       </c>
       <c r="B16" s="145">
-        <v>0.65839999999999999</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="145">
-        <v>0.6663</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="F16" s="62">
         <f>(E16-B16)/B16</f>
-        <v>1.1998784933171353E-2</v>
+        <v>-6.9880205362236386E-3</v>
       </c>
       <c r="H16" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="124">
         <v>1.555E-2</v>
@@ -13402,21 +13405,21 @@
         <v>22</v>
       </c>
       <c r="B17" s="67">
-        <v>0.2402</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="60" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="67">
-        <v>0.51749999999999996</v>
+        <v>0.6492</v>
       </c>
       <c r="F17" s="62">
         <f>(E17-B17)/B17</f>
-        <v>1.1544546211490425</v>
+        <v>0.96429652042360048</v>
       </c>
       <c r="H17" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="124">
         <v>4.8280000000000003E-4</v>
@@ -13439,21 +13442,21 @@
         <v>23</v>
       </c>
       <c r="B18" s="68">
-        <v>0.1226</v>
+        <v>0.2457</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="63" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="68">
-        <v>0.45929999999999999</v>
+        <v>0.59919999999999995</v>
       </c>
       <c r="F18" s="62">
         <f t="shared" ref="F18:F26" si="5">(E18-B18)/B18</f>
-        <v>2.7463295269168024</v>
+        <v>1.4387464387464384</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="127">
         <v>0</v>
@@ -13473,21 +13476,21 @@
         <v>24</v>
       </c>
       <c r="B19" s="67">
-        <v>9.1600000000000001E-2</v>
+        <v>0.22520000000000001</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="60" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="67">
-        <v>0.42220000000000002</v>
+        <v>0.56410000000000005</v>
       </c>
       <c r="F19" s="62">
         <f t="shared" si="5"/>
-        <v>3.609170305676856</v>
+        <v>1.5048845470692718</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="125">
         <v>3.19</v>
@@ -13510,21 +13513,21 @@
         <v>25</v>
       </c>
       <c r="B20" s="67">
-        <v>7.9600000000000004E-2</v>
+        <v>0.2137</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="65" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="67">
-        <v>0.3876</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" si="5"/>
-        <v>3.8693467336683414</v>
+        <v>1.5194197473093121</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="126">
         <v>0.254</v>
@@ -13549,18 +13552,18 @@
         <v>26</v>
       </c>
       <c r="B21" s="67">
-        <v>7.8600000000000003E-2</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="65" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="67">
-        <v>0.35780000000000001</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="F21" s="62">
         <f t="shared" si="5"/>
-        <v>3.5521628498727735</v>
+        <v>1.4542372881355934</v>
       </c>
       <c r="L21" s="114"/>
       <c r="M21" s="41"/>
@@ -13575,18 +13578,18 @@
         <v>27</v>
       </c>
       <c r="B22" s="68">
-        <v>7.9200000000000007E-2</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="66" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="68">
-        <v>0.33069999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="F22" s="62">
         <f t="shared" si="5"/>
-        <v>3.1755050505050502</v>
+        <v>1.3389494549058474</v>
       </c>
       <c r="L22" s="115"/>
       <c r="M22" s="41"/>
@@ -13601,18 +13604,18 @@
         <v>28</v>
       </c>
       <c r="B23" s="67">
-        <v>8.3599999999999994E-2</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="65" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="67">
-        <v>0.30520000000000003</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" si="5"/>
-        <v>2.6507177033492826</v>
+        <v>1.2093844601412715</v>
       </c>
       <c r="L23" s="115"/>
       <c r="M23" s="41"/>
@@ -13627,18 +13630,18 @@
         <v>29</v>
       </c>
       <c r="B24" s="67">
-        <v>8.7400000000000005E-2</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="67">
-        <v>0.28010000000000002</v>
+        <v>0.40160000000000001</v>
       </c>
       <c r="F24" s="62">
         <f t="shared" si="5"/>
-        <v>2.2048054919908466</v>
+        <v>1.0385786802030457</v>
       </c>
       <c r="L24" s="115"/>
       <c r="M24" s="41"/>
@@ -13653,18 +13656,18 @@
         <v>30</v>
       </c>
       <c r="B25" s="67">
-        <v>8.9800000000000005E-2</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="65" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="67">
-        <v>0.26019999999999999</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="F25" s="62">
         <f t="shared" si="5"/>
-        <v>1.8975501113585744</v>
+        <v>0.87590486039296811</v>
       </c>
       <c r="L25" s="115"/>
       <c r="M25" s="41"/>
@@ -13679,18 +13682,18 @@
         <v>31</v>
       </c>
       <c r="B26" s="67">
-        <v>9.4399999999999998E-2</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="65" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="67">
-        <v>0.23719999999999999</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="F26" s="62">
         <f t="shared" si="5"/>
-        <v>1.5127118644067794</v>
+        <v>0.75931842385516524</v>
       </c>
       <c r="M26" s="5"/>
       <c r="O26" s="5"/>
@@ -13761,18 +13764,18 @@
         <v>39</v>
       </c>
       <c r="B30" s="79">
-        <v>0.62450000000000006</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="70" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="79">
-        <v>0.64039999999999997</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="F30" s="84">
         <f t="shared" ref="F30:F33" si="6">(E30-B30)/B30</f>
-        <v>2.546036829463557E-2</v>
+        <v>8.2879434712203756E-2</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -13785,18 +13788,18 @@
         <v>22</v>
       </c>
       <c r="B31" s="79">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1573</v>
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="81" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="79">
-        <v>0.45779999999999998</v>
+        <v>0.60360000000000003</v>
       </c>
       <c r="F31" s="84">
         <f t="shared" si="6"/>
-        <v>5.8328358208955216</v>
+        <v>2.8372536554354739</v>
       </c>
       <c r="L31" s="115"/>
       <c r="M31" s="41"/>
@@ -13811,18 +13814,18 @@
         <v>23</v>
       </c>
       <c r="B32" s="82">
-        <v>4.4999999999999997E-3</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="80" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="79">
-        <v>0.36159999999999998</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="F32" s="84">
         <f t="shared" si="6"/>
-        <v>79.355555555555554</v>
+        <v>7.0648734177215182</v>
       </c>
       <c r="L32" s="115"/>
       <c r="M32" s="41"/>
@@ -13837,18 +13840,18 @@
         <v>27</v>
       </c>
       <c r="B33" s="73">
-        <v>1E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="83" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="82">
-        <v>0.104</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="F33" s="87">
         <f t="shared" si="6"/>
-        <v>1038.9999999999998</v>
+        <v>35.266666666666666</v>
       </c>
       <c r="L33" s="115"/>
       <c r="M33" s="41"/>
@@ -13873,7 +13876,7 @@
     </row>
     <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -13899,173 +13902,173 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="92">
-        <v>0.87890000000000001</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="C38" s="92">
-        <v>0.77110000000000001</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="D38" s="89">
         <f>(C38-B38)/B38</f>
-        <v>-0.12265331664580727</v>
+        <v>-4.5745654162854442E-2</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="92">
-        <v>0.84440000000000004</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="C39" s="59">
-        <v>0.84219999999999995</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="D39" s="89">
         <f>(C39-B39)/B39</f>
-        <v>-2.6054002842255931E-3</v>
+        <v>-1.2313892309414418E-3</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="92">
-        <v>0.67110000000000003</v>
+        <v>0.78559999999999997</v>
       </c>
       <c r="C40" s="92">
-        <v>0.60780000000000001</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="D40" s="89">
         <f>(C40-B40)/B40</f>
-        <v>-9.4322753687974992E-2</v>
+        <v>-1.4256619144602837E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="92">
-        <v>0.48</v>
+        <v>0.55889999999999995</v>
       </c>
       <c r="C41" s="92">
-        <v>0.47670000000000001</v>
+        <v>0.65439999999999998</v>
       </c>
       <c r="D41" s="89">
         <f t="shared" ref="D41:D46" si="7">(C41-B41)/B41</f>
-        <v>-6.8749999999999367E-3</v>
+        <v>0.17087135444623375</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="106">
-        <v>0.75890000000000002</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="C42" s="104">
-        <v>0.89439999999999997</v>
+        <v>0.87</v>
       </c>
       <c r="D42" s="89">
         <f t="shared" si="7"/>
-        <v>0.17854789827381731</v>
+        <v>3.3008786511517514E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="59">
-        <v>0.6633</v>
+        <v>0.72889999999999999</v>
       </c>
       <c r="C43" s="59">
-        <v>0.65780000000000005</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="D43" s="89">
         <f t="shared" si="7"/>
-        <v>-8.2918739635156787E-3</v>
+        <v>-9.6035121415832009E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="22">
-        <v>0.89780000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="C44" s="59">
-        <v>0.8911</v>
+        <v>0.91</v>
       </c>
       <c r="D44" s="89">
         <f t="shared" si="7"/>
-        <v>-7.4626865671642223E-3</v>
+        <v>8.3333333333333412E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="22">
-        <v>0.84330000000000005</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="C45" s="59">
-        <v>0.61560000000000004</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="D45" s="89">
         <f t="shared" si="7"/>
-        <v>-0.27001067235859127</v>
+        <v>-4.7681487662414979E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="22">
-        <v>0.84670000000000001</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="C46" s="59">
-        <v>0.85560000000000003</v>
+        <v>0.89780000000000004</v>
       </c>
       <c r="D46" s="89">
         <f t="shared" si="7"/>
-        <v>1.0511397189087066E-2</v>
+        <v>-2.6458468878768137E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="22">
-        <v>0.9</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="C47" s="59">
-        <v>0.86329999999999996</v>
+        <v>0.9244</v>
       </c>
       <c r="D47" s="89">
         <f>(C47-B47)/B47</f>
-        <v>-4.077777777777785E-2</v>
+        <v>5.9854173468276732E-3</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="59">
         <f>AVERAGE(B38:B47)</f>
-        <v>0.77844000000000002</v>
+        <v>0.82033</v>
       </c>
       <c r="C48" s="59">
         <f>AVERAGE(C38:C47)</f>
-        <v>0.74755999999999989</v>
+        <v>0.82153999999999994</v>
       </c>
       <c r="D48" s="89">
         <f>(C48-B48)/B48</f>
-        <v>-3.9669081753250256E-2</v>
+        <v>1.4750161520362944E-3</v>
       </c>
       <c r="F48" s="41"/>
     </row>
@@ -14078,7 +14081,7 @@
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B50" s="90"/>
       <c r="C50" s="90"/>
@@ -14107,14 +14110,14 @@
         <v>0</v>
       </c>
       <c r="B52" s="92">
-        <v>9.4399999999999998E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="C52" s="92">
-        <v>0.22559999999999999</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="D52" s="89">
         <f t="shared" ref="D52:D62" si="8">(C52-B52)/B52</f>
-        <v>1.3898305084745761</v>
+        <v>2.5501551189245086</v>
       </c>
       <c r="E52" s="105"/>
       <c r="F52" s="89"/>
@@ -14124,14 +14127,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="92">
-        <v>1.89E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="C53" s="92">
-        <v>0.30559999999999998</v>
+        <v>0.4778</v>
       </c>
       <c r="D53" s="89">
         <f t="shared" si="8"/>
-        <v>15.169312169312168</v>
+        <v>11.640211640211641</v>
       </c>
       <c r="E53" s="105"/>
       <c r="F53" s="89"/>
@@ -14141,14 +14144,14 @@
         <v>2</v>
       </c>
       <c r="B54" s="92">
-        <v>0.1056</v>
+        <v>0.1678</v>
       </c>
       <c r="C54" s="92">
-        <v>0.4178</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="D54" s="89">
         <f t="shared" si="8"/>
-        <v>2.9564393939393945</v>
+        <v>2.2377830750893919</v>
       </c>
       <c r="E54" s="105"/>
       <c r="F54" s="89"/>
@@ -14158,14 +14161,14 @@
         <v>3</v>
       </c>
       <c r="B55" s="92">
-        <v>9.11E-2</v>
+        <v>9.7799999999999998E-2</v>
       </c>
       <c r="C55" s="92">
-        <v>0.22889999999999999</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="D55" s="89">
         <f t="shared" si="8"/>
-        <v>1.5126234906695937</v>
+        <v>2.8517382413087935</v>
       </c>
       <c r="E55" s="105"/>
       <c r="F55" s="89"/>
@@ -14175,14 +14178,14 @@
         <v>4</v>
       </c>
       <c r="B56" s="106">
-        <v>0.1789</v>
+        <v>0.24779999999999999</v>
       </c>
       <c r="C56" s="106">
-        <v>0.50780000000000003</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="D56" s="89">
         <f t="shared" si="8"/>
-        <v>1.8384572386808273</v>
+        <v>1.4439063761097659</v>
       </c>
       <c r="E56" s="117"/>
       <c r="F56" s="89"/>
@@ -14192,14 +14195,14 @@
         <v>5</v>
       </c>
       <c r="B57" s="59">
-        <v>4.7800000000000002E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="C57" s="59">
-        <v>0.2356</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="D57" s="89">
         <f t="shared" si="8"/>
-        <v>3.9288702928870292</v>
+        <v>3.4860248447204967</v>
       </c>
       <c r="E57" s="105"/>
       <c r="F57" s="89"/>
@@ -14209,14 +14212,14 @@
         <v>6</v>
       </c>
       <c r="B58" s="22">
-        <v>0.2767</v>
+        <v>0.1178</v>
       </c>
       <c r="C58" s="22">
         <v>0.65559999999999996</v>
       </c>
       <c r="D58" s="89">
         <f t="shared" si="8"/>
-        <v>1.3693530899891577</v>
+        <v>4.5653650254668925</v>
       </c>
       <c r="E58" s="105"/>
       <c r="F58" s="89"/>
@@ -14226,14 +14229,14 @@
         <v>7</v>
       </c>
       <c r="B59" s="22">
-        <v>6.3299999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C59" s="22">
-        <v>0.21110000000000001</v>
+        <v>0.4556</v>
       </c>
       <c r="D59" s="89">
         <f t="shared" si="8"/>
-        <v>2.3349131121642972</v>
+        <v>6.5933333333333337</v>
       </c>
       <c r="E59" s="116"/>
       <c r="F59" s="90"/>
@@ -14243,14 +14246,14 @@
         <v>8</v>
       </c>
       <c r="B60" s="22">
-        <v>0.11890000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C60" s="22">
-        <v>0.42330000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="D60" s="89">
         <f t="shared" si="8"/>
-        <v>2.5601345668629101</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="E60" s="101"/>
       <c r="F60" s="102"/>
@@ -14260,33 +14263,33 @@
         <v>9</v>
       </c>
       <c r="B61" s="22">
-        <v>0.15110000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C61" s="22">
-        <v>0.51890000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="D61" s="89">
         <f t="shared" si="8"/>
-        <v>2.4341495698213103</v>
+        <v>3.3124999999999996</v>
       </c>
       <c r="E61" s="105"/>
       <c r="F61" s="89"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="59">
         <f>AVERAGE(B52:B61)</f>
-        <v>0.11467000000000001</v>
+        <v>0.12300999999999999</v>
       </c>
       <c r="C62" s="59">
         <f>AVERAGE(C52:C61)</f>
-        <v>0.37302000000000002</v>
+        <v>0.50567999999999991</v>
       </c>
       <c r="D62" s="89">
         <f t="shared" si="8"/>
-        <v>2.2529868317781458</v>
+        <v>3.1108852938785456</v>
       </c>
       <c r="E62" s="105"/>
       <c r="F62" s="89"/>
@@ -14301,7 +14304,7 @@
     </row>
     <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
@@ -14330,14 +14333,14 @@
         <v>0</v>
       </c>
       <c r="B66" s="92">
-        <v>0.41889999999999999</v>
+        <v>0.24560000000000001</v>
       </c>
       <c r="C66" s="92">
-        <v>0.33329999999999999</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="D66" s="89">
         <f t="shared" ref="D66:D76" si="9">(C66-B66)/B66</f>
-        <v>-0.20434471234184773</v>
+        <v>-0.42100977198697076</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="58"/>
@@ -14347,14 +14350,14 @@
         <v>1</v>
       </c>
       <c r="B67" s="92">
-        <v>0.23219999999999999</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="C67" s="92">
-        <v>0.22670000000000001</v>
+        <v>0.1767</v>
       </c>
       <c r="D67" s="89">
         <f t="shared" si="9"/>
-        <v>-2.3686477174849171E-2</v>
+        <v>-0.10167768174885621</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="58"/>
@@ -14364,14 +14367,14 @@
         <v>2</v>
       </c>
       <c r="B68" s="92">
-        <v>0.37440000000000001</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="C68" s="92">
-        <v>0.39439999999999997</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="D68" s="89">
         <f t="shared" si="9"/>
-        <v>5.3418803418803319E-2</v>
+        <v>-2.7242118151208951E-2</v>
       </c>
       <c r="E68" s="116"/>
       <c r="F68" s="90"/>
@@ -14381,14 +14384,14 @@
         <v>3</v>
       </c>
       <c r="B69" s="92">
-        <v>0.3322</v>
+        <v>0.15110000000000001</v>
       </c>
       <c r="C69" s="92">
-        <v>0.31559999999999999</v>
+        <v>0.1978</v>
       </c>
       <c r="D69" s="89">
         <f t="shared" si="9"/>
-        <v>-4.996989765201687E-2</v>
+        <v>0.30906684315023153</v>
       </c>
       <c r="E69" s="101"/>
       <c r="F69" s="102"/>
@@ -14398,14 +14401,14 @@
         <v>4</v>
       </c>
       <c r="B70" s="106">
-        <v>0.36670000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="C70" s="106">
-        <v>0.47889999999999999</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="D70" s="89">
         <f t="shared" si="9"/>
-        <v>0.30597218434687745</v>
+        <v>-0.13268292682926819</v>
       </c>
       <c r="E70" s="105"/>
       <c r="F70" s="89"/>
@@ -14415,14 +14418,14 @@
         <v>5</v>
       </c>
       <c r="B71" s="59">
-        <v>0.4456</v>
+        <v>0.1822</v>
       </c>
       <c r="C71" s="59">
-        <v>0.42330000000000001</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="D71" s="89">
         <f t="shared" si="9"/>
-        <v>-5.00448833034111E-2</v>
+        <v>-0.21953896816684965</v>
       </c>
       <c r="E71" s="105"/>
       <c r="F71" s="89"/>
@@ -14432,14 +14435,14 @@
         <v>6</v>
       </c>
       <c r="B72" s="22">
-        <v>0.65890000000000004</v>
+        <v>0.37330000000000002</v>
       </c>
       <c r="C72" s="22">
-        <v>0.63329999999999997</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="D72" s="89">
         <f t="shared" si="9"/>
-        <v>-3.8852633176506397E-2</v>
+        <v>0.25314760246450568</v>
       </c>
       <c r="E72" s="105"/>
       <c r="F72" s="89"/>
@@ -14449,14 +14452,14 @@
         <v>7</v>
       </c>
       <c r="B73" s="22">
-        <v>0.5</v>
+        <v>0.21890000000000001</v>
       </c>
       <c r="C73" s="22">
-        <v>0.38440000000000002</v>
+        <v>0.17330000000000001</v>
       </c>
       <c r="D73" s="89">
         <f t="shared" si="9"/>
-        <v>-0.23119999999999996</v>
+        <v>-0.20831429876656007</v>
       </c>
       <c r="E73" s="105"/>
       <c r="F73" s="89"/>
@@ -14466,14 +14469,14 @@
         <v>8</v>
       </c>
       <c r="B74" s="22">
-        <v>0.38329999999999997</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="C74" s="22">
-        <v>0.3422</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="D74" s="89">
         <f t="shared" si="9"/>
-        <v>-0.10722671536655354</v>
+        <v>-0.29935720844811753</v>
       </c>
       <c r="E74" s="97"/>
       <c r="F74" s="89"/>
@@ -14483,31 +14486,31 @@
         <v>9</v>
       </c>
       <c r="B75" s="22">
-        <v>0.69669999999999999</v>
+        <v>0.26889999999999997</v>
       </c>
       <c r="C75" s="22">
-        <v>0.58560000000000001</v>
+        <v>0.2167</v>
       </c>
       <c r="D75" s="89">
         <f t="shared" si="9"/>
-        <v>-0.1594660542557772</v>
+        <v>-0.19412420974339895</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="59">
         <f>AVERAGE(B66:B75)</f>
-        <v>0.44089</v>
+        <v>0.27000999999999997</v>
       </c>
       <c r="C76" s="59">
         <f>AVERAGE(C66:C75)</f>
-        <v>0.41177000000000002</v>
+        <v>0.2419</v>
       </c>
       <c r="D76" s="89">
         <f t="shared" si="9"/>
-        <v>-6.6048220644605179E-2</v>
+        <v>-0.10410725528684112</v>
       </c>
     </row>
   </sheetData>
@@ -14539,7 +14542,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -14606,7 +14609,7 @@
       <c r="I5" s="8"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -14848,13 +14851,13 @@
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="H14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -14886,7 +14889,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="46"/>
       <c r="N15" s="46"/>
@@ -14916,7 +14919,7 @@
         <v>9.1893392559688952E-2</v>
       </c>
       <c r="H16" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="124">
         <v>1.3509999999999999E-2</v>
@@ -14953,7 +14956,7 @@
         <v>0.39342188488298552</v>
       </c>
       <c r="H17" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="124">
         <v>9.3849999999999999E-4</v>
@@ -14990,7 +14993,7 @@
         <v>0.59115044247787596</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="130">
         <v>4.1760000000000002</v>
@@ -15027,7 +15030,7 @@
         <v>0.40460947503201028</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="126">
         <v>0.66200000000000003</v>
@@ -15263,7 +15266,7 @@
     </row>
     <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -15298,7 +15301,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="59">
         <f>AVERAGE(I45:I144)</f>
@@ -15318,7 +15321,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="59">
         <f>AVERAGE(K45:K144)</f>
@@ -15333,12 +15336,12 @@
         <v>0.30100937274693573</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="59">
         <f>AVERAGE(M45:M144)</f>
@@ -15357,42 +15360,42 @@
     <row r="42" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="H42" s="11"/>
       <c r="K42" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="I43" s="149" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149" t="s">
+      <c r="I43" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="N43" s="149"/>
+      <c r="N43" s="150"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H44" s="58"/>
       <c r="I44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="K44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="M44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
